--- a/data/Combined data_ESC_abstract_31012020_CALCULATED.xlsx
+++ b/data/Combined data_ESC_abstract_31012020_CALCULATED.xlsx
@@ -1,21 +1,125 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sruizcarmona/sgcluster/WORK/BIOINFO/CLAESSEN_GUIDO/alg1_HOUSTIS/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AA5031-2245-E744-BCF6-3F2BEBFF06C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="30060" yWindow="-13040" windowWidth="23820" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="31">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>vo2</t>
+  </si>
+  <si>
+    <t>vco2</t>
+  </si>
+  <si>
+    <t>paco2</t>
+  </si>
+  <si>
+    <t>pao2</t>
+  </si>
+  <si>
+    <t>pvo2</t>
+  </si>
+  <si>
+    <t>hb</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>satao2</t>
+  </si>
+  <si>
+    <t>satcvo2</t>
+  </si>
+  <si>
+    <t>pha</t>
+  </si>
+  <si>
+    <t>phv</t>
+  </si>
+  <si>
+    <t>pvco2</t>
+  </si>
+  <si>
+    <t>o2ct.art</t>
+  </si>
+  <si>
+    <t>o2ct.ven</t>
+  </si>
+  <si>
+    <t>va</t>
+  </si>
+  <si>
+    <t>avo2</t>
+  </si>
+  <si>
+    <t>o2deliv</t>
+  </si>
+  <si>
+    <t>pA</t>
+  </si>
+  <si>
+    <t>vmax</t>
+  </si>
+  <si>
+    <t>p50</t>
+  </si>
+  <si>
+    <t>pmito</t>
+  </si>
+  <si>
+    <t>dmo2</t>
+  </si>
+  <si>
+    <t>dlo2</t>
+  </si>
+  <si>
+    <t>pmcap</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>CTED</t>
+  </si>
+  <si>
+    <t>CTEPH</t>
+  </si>
+  <si>
+    <t>HFpEF</t>
+  </si>
+  <si>
+    <t>Post-PEA</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +167,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -109,7 +221,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +253,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +305,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,153 +498,101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68:E69"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>group</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>vo2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>vco2</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>paco2</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>pao2</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>pvo2</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>hb</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>q</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>satao2</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>satcvo2</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>pha</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>phv</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>pvco2</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>o2ct.art</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>o2ct.ven</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>va</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>avo2</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>o2deliv</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>pA</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>vmax</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>p50</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>pmito</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>dmo2</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>dlo2</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>pmcap</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>301</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Control</t>
-        </is>
+      <c r="B2" t="s">
+        <v>26</v>
       </c>
       <c r="C2">
         <v>3655</v>
@@ -505,10 +601,10 @@
         <v>4632</v>
       </c>
       <c r="E2">
-        <v>34.8</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="F2">
-        <v>79.90000000000001</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="G2">
         <v>21.2</v>
@@ -517,7 +613,7 @@
         <v>14.1</v>
       </c>
       <c r="I2">
-        <v>30.45399430628949</v>
+        <v>25.139591796308089</v>
       </c>
       <c r="J2">
         <v>96</v>
@@ -535,19 +631,19 @@
         <v>60</v>
       </c>
       <c r="O2">
-        <v>18.86336717342333</v>
+        <v>19.20608</v>
       </c>
       <c r="P2">
-        <v>6.861657436303052</v>
+        <v>4.6672599999999997</v>
       </c>
       <c r="Q2">
-        <v>114.8433548540656</v>
+        <v>114.84335485406559</v>
       </c>
       <c r="R2">
-        <v>12.00170973712028</v>
+        <v>14.538819999999999</v>
       </c>
       <c r="S2">
-        <v>5.74464876496882</v>
+        <v>4.8283301120723694</v>
       </c>
       <c r="T2">
         <v>122.2701554404145</v>
@@ -562,23 +658,21 @@
         <v>0.3</v>
       </c>
       <c r="X2">
-        <v>109.9405245312817</v>
+        <v>90.755251373302528</v>
       </c>
       <c r="Y2">
-        <v>44.6577980265014</v>
+        <v>36.864747580134598</v>
       </c>
       <c r="Z2">
-        <v>33.55204367662485</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>33.552043676625061</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>302</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Control</t>
-        </is>
+      <c r="B3" t="s">
+        <v>26</v>
       </c>
       <c r="C3">
         <v>3061</v>
@@ -599,7 +693,7 @@
         <v>13.3</v>
       </c>
       <c r="I3">
-        <v>32.30283399319875</v>
+        <v>28.426714611015569</v>
       </c>
       <c r="J3">
         <v>98.3</v>
@@ -617,22 +711,22 @@
         <v>50.8</v>
       </c>
       <c r="O3">
-        <v>18.22533181234902</v>
+        <v>18.6145</v>
       </c>
       <c r="P3">
-        <v>8.749383043753413</v>
+        <v>7.8464600000000004</v>
       </c>
       <c r="Q3">
-        <v>78.50556670166429</v>
+        <v>78.505566701664293</v>
       </c>
       <c r="R3">
-        <v>9.475948768595609</v>
+        <v>10.768039999999999</v>
       </c>
       <c r="S3">
-        <v>5.887298680052745</v>
+        <v>5.2914907912674929</v>
       </c>
       <c r="T3">
-        <v>116.0881832627119</v>
+        <v>116.08818326271189</v>
       </c>
       <c r="U3">
         <v>5509.8</v>
@@ -644,23 +738,21 @@
         <v>0.3</v>
       </c>
       <c r="X3">
-        <v>79.68895415365388</v>
+        <v>70.12682410003508</v>
       </c>
       <c r="Y3">
-        <v>45.5823972894006</v>
+        <v>40.112821039309971</v>
       </c>
       <c r="Z3">
-        <v>38.72270843114752</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>38.722708431129149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>303</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Control</t>
-        </is>
+      <c r="B4" t="s">
+        <v>26</v>
       </c>
       <c r="C4">
         <v>3048</v>
@@ -681,13 +773,13 @@
         <v>14.4</v>
       </c>
       <c r="I4">
-        <v>30.04187041371938</v>
+        <v>24.848042156888319</v>
       </c>
       <c r="J4">
         <v>98.7</v>
       </c>
       <c r="K4">
-        <v>39.2</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="L4">
         <v>7.36</v>
@@ -699,50 +791,48 @@
         <v>52.4</v>
       </c>
       <c r="O4">
-        <v>19.92661691883771</v>
+        <v>20.253119999999999</v>
       </c>
       <c r="P4">
-        <v>9.780777268960071</v>
+        <v>7.9865600000000008</v>
       </c>
       <c r="Q4">
-        <v>99.64534856819351</v>
+        <v>99.645348568193512</v>
       </c>
       <c r="R4">
-        <v>10.14583964987764</v>
+        <v>12.26656</v>
       </c>
       <c r="S4">
-        <v>5.986328432595506</v>
+        <v>5.0325037956851801</v>
       </c>
       <c r="T4">
         <v>123.3378667030866</v>
       </c>
       <c r="U4">
-        <v>5486.400000000001</v>
+        <v>5486.4000000000005</v>
       </c>
       <c r="V4">
         <v>0.24</v>
       </c>
       <c r="W4">
-        <v>0.2999999999999999</v>
+        <v>0.29999999999999988</v>
       </c>
       <c r="X4">
-        <v>77.08893440715852</v>
+        <v>63.761312647495068</v>
       </c>
       <c r="Y4">
-        <v>43.34810422402429</v>
+        <v>35.853810243714122</v>
       </c>
       <c r="Z4">
-        <v>39.85637452865314</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>39.856374528331862</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>304</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Control</t>
-        </is>
+      <c r="B5" t="s">
+        <v>26</v>
       </c>
       <c r="C5">
         <v>4390</v>
@@ -754,7 +844,7 @@
         <v>33.6</v>
       </c>
       <c r="F5">
-        <v>90.59999999999999</v>
+        <v>90.6</v>
       </c>
       <c r="G5">
         <v>22</v>
@@ -763,10 +853,10 @@
         <v>15.4</v>
       </c>
       <c r="I5">
-        <v>33.96493883954601</v>
+        <v>29.416810065239659</v>
       </c>
       <c r="J5">
-        <v>98.09999999999999</v>
+        <v>98.1</v>
       </c>
       <c r="K5">
         <v>29.9</v>
@@ -781,19 +871,19 @@
         <v>42.9</v>
       </c>
       <c r="O5">
-        <v>20.90805189131138</v>
+        <v>21.440279999999991</v>
       </c>
       <c r="P5">
-        <v>7.982958692295695</v>
+        <v>6.5168399999999993</v>
       </c>
       <c r="Q5">
-        <v>138.2297958009779</v>
+        <v>138.22979580097791</v>
       </c>
       <c r="R5">
-        <v>12.92509319901569</v>
+        <v>14.923439999999999</v>
       </c>
       <c r="S5">
-        <v>7.101407037424455</v>
+        <v>6.3070464450555654</v>
       </c>
       <c r="T5">
         <v>122.3281794538361</v>
@@ -808,23 +898,21 @@
         <v>0.3</v>
       </c>
       <c r="X5">
-        <v>127.2246452968979</v>
+        <v>110.1884282492113</v>
       </c>
       <c r="Y5">
-        <v>55.60250345426044</v>
+        <v>48.156962419181383</v>
       </c>
       <c r="Z5">
-        <v>34.81681796791275</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>34.816817967895268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>306</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Control</t>
-        </is>
+      <c r="B6" t="s">
+        <v>26</v>
       </c>
       <c r="C6">
         <v>2093</v>
@@ -845,13 +933,13 @@
         <v>15.9</v>
       </c>
       <c r="I6">
-        <v>28.2935721620496</v>
+        <v>29.37956204379562</v>
       </c>
       <c r="J6">
         <v>97.8</v>
       </c>
       <c r="K6">
-        <v>66.59999999999999</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="L6">
         <v>7.42</v>
@@ -863,19 +951,19 @@
         <v>38</v>
       </c>
       <c r="O6">
-        <v>21.53008760641192</v>
+        <v>22.05444</v>
       </c>
       <c r="P6">
-        <v>14.13264769316067</v>
+        <v>14.930440000000001</v>
       </c>
       <c r="Q6">
-        <v>61.74061867918923</v>
+        <v>61.740618679189232</v>
       </c>
       <c r="R6">
-        <v>7.397439913251244</v>
+        <v>7.1240000000000014</v>
       </c>
       <c r="S6">
-        <v>6.091630873472655</v>
+        <v>6.4794978832116783</v>
       </c>
       <c r="T6">
         <v>120.480744558992</v>
@@ -890,23 +978,21 @@
         <v>0.3</v>
       </c>
       <c r="X6">
-        <v>46.12424375855259</v>
+        <v>47.894626859244738</v>
       </c>
       <c r="Y6">
-        <v>30.71432099921093</v>
+        <v>31.893226286913769</v>
       </c>
       <c r="Z6">
-        <v>45.68168783069547</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>45.681687830547737</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>308</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Control</t>
-        </is>
+      <c r="B7" t="s">
+        <v>26</v>
       </c>
       <c r="C7">
         <v>3039</v>
@@ -915,7 +1001,7 @@
         <v>3617</v>
       </c>
       <c r="E7">
-        <v>39.2</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="F7">
         <v>63.9</v>
@@ -927,10 +1013,10 @@
         <v>16.5</v>
       </c>
       <c r="I7">
-        <v>31.16941097387824</v>
+        <v>26.197417670800441</v>
       </c>
       <c r="J7">
-        <v>93.09999999999999</v>
+        <v>93.1</v>
       </c>
       <c r="K7">
         <v>43.4</v>
@@ -945,19 +1031,19 @@
         <v>52.6</v>
       </c>
       <c r="O7">
-        <v>21.12268362956216</v>
+        <v>21.71058</v>
       </c>
       <c r="P7">
-        <v>11.37273999877987</v>
+        <v>10.110200000000001</v>
       </c>
       <c r="Q7">
-        <v>79.61208642214434</v>
+        <v>79.612086422144344</v>
       </c>
       <c r="R7">
-        <v>9.749943630782298</v>
+        <v>11.600379999999999</v>
       </c>
       <c r="S7">
-        <v>6.583816069210333</v>
+        <v>5.6876113213532662</v>
       </c>
       <c r="T7">
         <v>116.7941968482167</v>
@@ -972,23 +1058,21 @@
         <v>0.3</v>
       </c>
       <c r="X7">
-        <v>82.74556900599447</v>
+        <v>69.546397058152166</v>
       </c>
       <c r="Y7">
-        <v>39.87068633183915</v>
+        <v>33.510707774748248</v>
       </c>
       <c r="Z7">
-        <v>37.0286933184423</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>37.02869331844223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>309</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Control</t>
-        </is>
+      <c r="B8" t="s">
+        <v>26</v>
       </c>
       <c r="C8">
         <v>1055</v>
@@ -1000,7 +1084,7 @@
         <v>37.1</v>
       </c>
       <c r="F8">
-        <v>98.59999999999999</v>
+        <v>98.6</v>
       </c>
       <c r="G8">
         <v>36</v>
@@ -1009,7 +1093,7 @@
         <v>13.4</v>
       </c>
       <c r="I8">
-        <v>19.40014038410186</v>
+        <v>18.27776661284398</v>
       </c>
       <c r="J8">
         <v>98.5</v>
@@ -1027,19 +1111,19 @@
         <v>38.5</v>
       </c>
       <c r="O8">
-        <v>18.38487619209959</v>
+        <v>18.794119999999999</v>
       </c>
       <c r="P8">
-        <v>12.94677121392862</v>
+        <v>13.022080000000001</v>
       </c>
       <c r="Q8">
         <v>29.44261364825611</v>
       </c>
       <c r="R8">
-        <v>5.438104978170971</v>
+        <v>5.7720400000000014</v>
       </c>
       <c r="S8">
-        <v>3.566691790710641</v>
+        <v>3.435145390537834</v>
       </c>
       <c r="T8">
         <v>118.8133333333333</v>
@@ -1054,23 +1138,21 @@
         <v>0.3</v>
       </c>
       <c r="X8">
-        <v>21.34802667003564</v>
+        <v>20.112960083465179</v>
       </c>
       <c r="Y8">
-        <v>17.51098835144519</v>
+        <v>16.497909391945999</v>
       </c>
       <c r="Z8">
-        <v>49.72417387602116</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>49.724173877511262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>310</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Control</t>
-        </is>
+      <c r="B9" t="s">
+        <v>26</v>
       </c>
       <c r="C9">
         <v>1300</v>
@@ -1082,7 +1164,7 @@
         <v>44.4</v>
       </c>
       <c r="F9">
-        <v>65.40000000000001</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="G9">
         <v>25.8</v>
@@ -1091,7 +1173,7 @@
         <v>13.9</v>
       </c>
       <c r="I9">
-        <v>14.97586445123947</v>
+        <v>12.85893745610651</v>
       </c>
       <c r="J9">
         <v>92.3</v>
@@ -1109,19 +1191,19 @@
         <v>52.8</v>
       </c>
       <c r="O9">
-        <v>17.92302841315556</v>
+        <v>18.170860000000001</v>
       </c>
       <c r="P9">
-        <v>9.242394288609876</v>
+        <v>8.061160000000001</v>
       </c>
       <c r="Q9">
-        <v>30.3150432572348</v>
+        <v>30.315043257234802</v>
       </c>
       <c r="R9">
-        <v>8.680634124545684</v>
+        <v>10.1097</v>
       </c>
       <c r="S9">
-        <v>2.684128440711314</v>
+        <v>2.3365795226366761</v>
       </c>
       <c r="T9">
         <v>112.73</v>
@@ -1136,23 +1218,21 @@
         <v>0.3</v>
       </c>
       <c r="X9">
-        <v>35.81661240230714</v>
+        <v>30.75372244923965</v>
       </c>
       <c r="Y9">
-        <v>18.02151397240019</v>
+        <v>15.474066407983811</v>
       </c>
       <c r="Z9">
-        <v>36.59794933792865</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>36.597949337927993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>311</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Control</t>
-        </is>
+      <c r="B10" t="s">
+        <v>26</v>
       </c>
       <c r="C10">
         <v>2247</v>
@@ -1173,7 +1253,7 @@
         <v>14.8</v>
       </c>
       <c r="I10">
-        <v>28.32134354206105</v>
+        <v>18.534465692679259</v>
       </c>
       <c r="J10">
         <v>97.5</v>
@@ -1191,19 +1271,19 @@
         <v>59.6</v>
       </c>
       <c r="O10">
-        <v>20.35222485167672</v>
+        <v>20.531600000000001</v>
       </c>
       <c r="P10">
-        <v>12.41827921571881</v>
+        <v>8.4082399999999993</v>
       </c>
       <c r="Q10">
-        <v>67.25169581290291</v>
+        <v>67.251695812902909</v>
       </c>
       <c r="R10">
-        <v>7.93394563595791</v>
+        <v>12.12336</v>
       </c>
       <c r="S10">
-        <v>5.76402351869609</v>
+        <v>3.8054223581581348</v>
       </c>
       <c r="T10">
         <v>120.901875</v>
@@ -1218,23 +1298,21 @@
         <v>0.3</v>
       </c>
       <c r="X10">
-        <v>50.55607976485101</v>
+        <v>33.085645268401073</v>
       </c>
       <c r="Y10">
-        <v>34.19967757150033</v>
+        <v>22.381450573073199</v>
       </c>
       <c r="Z10">
-        <v>44.75475354944302</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>44.754753549432792</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>312</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Control</t>
-        </is>
+      <c r="B11" t="s">
+        <v>26</v>
       </c>
       <c r="C11">
         <v>1389</v>
@@ -1255,10 +1333,10 @@
         <v>14.2</v>
       </c>
       <c r="I11">
-        <v>13.72778239170928</v>
+        <v>13.161734885325179</v>
       </c>
       <c r="J11">
-        <v>97.40000000000001</v>
+        <v>97.4</v>
       </c>
       <c r="K11">
         <v>45.3</v>
@@ -1273,50 +1351,48 @@
         <v>40.4</v>
       </c>
       <c r="O11">
-        <v>19.19161840912864</v>
+        <v>19.639279999999999</v>
       </c>
       <c r="P11">
-        <v>9.073451028803108</v>
+        <v>9.0859599999999983</v>
       </c>
       <c r="Q11">
-        <v>40.79146566619846</v>
+        <v>40.791465666198462</v>
       </c>
       <c r="R11">
-        <v>10.11816738032553</v>
+        <v>10.553319999999999</v>
       </c>
       <c r="S11">
-        <v>2.634583612652398</v>
+        <v>2.584869966986691</v>
       </c>
       <c r="T11">
         <v>120.3501550387597</v>
       </c>
       <c r="U11">
-        <v>2500.2</v>
+        <v>2500.1999999999998</v>
       </c>
       <c r="V11">
         <v>0.24</v>
       </c>
       <c r="W11">
-        <v>0.2999999999999999</v>
+        <v>0.29999999999999988</v>
       </c>
       <c r="X11">
-        <v>37.1870523479794</v>
+        <v>35.65369192233188</v>
       </c>
       <c r="Y11">
-        <v>18.44752335547191</v>
+        <v>17.68686338167792</v>
       </c>
       <c r="Z11">
-        <v>37.65868427166429</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>37.658684271664207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>CTED</t>
-        </is>
+      <c r="B12" t="s">
+        <v>27</v>
       </c>
       <c r="C12">
         <v>932</v>
@@ -1337,7 +1413,7 @@
         <v>14.7</v>
       </c>
       <c r="I12">
-        <v>11.08825001723482</v>
+        <v>10.10672791430536</v>
       </c>
       <c r="J12">
         <v>92.7</v>
@@ -1352,22 +1428,22 @@
         <v>7.43</v>
       </c>
       <c r="N12">
-        <v>38.2</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="O12">
-        <v>18.44100062983857</v>
+        <v>19.266459999999999</v>
       </c>
       <c r="P12">
-        <v>10.03570675072002</v>
+        <v>10.044879999999999</v>
       </c>
       <c r="Q12">
-        <v>28.24645607036353</v>
+        <v>28.246456070363529</v>
       </c>
       <c r="R12">
-        <v>8.405293879118553</v>
+        <v>9.2215799999999994</v>
       </c>
       <c r="S12">
-        <v>2.044784255516348</v>
+        <v>1.947208690918476</v>
       </c>
       <c r="T12">
         <v>121.2612427409988</v>
@@ -1382,23 +1458,21 @@
         <v>0.3</v>
       </c>
       <c r="X12">
-        <v>25.97946904521973</v>
+        <v>23.679789379752201</v>
       </c>
       <c r="Y12">
-        <v>11.3277305651672</v>
+        <v>10.325009855545799</v>
       </c>
       <c r="Z12">
-        <v>36.1756342369443</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>36.175634236944298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>CTED</t>
-        </is>
+      <c r="B13" t="s">
+        <v>27</v>
       </c>
       <c r="C13">
         <v>1569</v>
@@ -1410,7 +1484,7 @@
         <v>35.5</v>
       </c>
       <c r="F13">
-        <v>77.59999999999999</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="G13">
         <v>30</v>
@@ -1419,7 +1493,7 @@
         <v>13.6</v>
       </c>
       <c r="I13">
-        <v>21.9356844133422</v>
+        <v>15.97005081102208</v>
       </c>
       <c r="J13">
         <v>95.7</v>
@@ -1437,19 +1511,19 @@
         <v>51.6</v>
       </c>
       <c r="O13">
-        <v>18.12299954646101</v>
+        <v>18.4696</v>
       </c>
       <c r="P13">
-        <v>10.97027082172759</v>
+        <v>8.6449599999999993</v>
       </c>
       <c r="Q13">
-        <v>45.30374655178699</v>
+        <v>45.303746551786993</v>
       </c>
       <c r="R13">
-        <v>7.152728724733423</v>
+        <v>9.8246400000000005</v>
       </c>
       <c r="S13">
-        <v>3.975403986743126</v>
+        <v>2.9496045045925352</v>
       </c>
       <c r="T13">
         <v>119.8482939914163</v>
@@ -1461,26 +1535,24 @@
         <v>0.24</v>
       </c>
       <c r="W13">
-        <v>0.2999999999999999</v>
+        <v>0.29999999999999988</v>
       </c>
       <c r="X13">
-        <v>37.78836262465794</v>
+        <v>27.511431136813229</v>
       </c>
       <c r="Y13">
-        <v>21.50225892544419</v>
+        <v>15.6544998150243</v>
       </c>
       <c r="Z13">
-        <v>41.82365879091154</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>41.823658790852477</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>8</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>CTED</t>
-        </is>
+      <c r="B14" t="s">
+        <v>27</v>
       </c>
       <c r="C14">
         <v>1565</v>
@@ -1489,7 +1561,7 @@
         <v>1468</v>
       </c>
       <c r="E14">
-        <v>40.7</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="F14">
         <v>55</v>
@@ -1501,10 +1573,10 @@
         <v>14.6</v>
       </c>
       <c r="I14">
-        <v>13.45013573925042</v>
+        <v>12.96598851370832</v>
       </c>
       <c r="J14">
-        <v>89.40000000000001</v>
+        <v>89.4</v>
       </c>
       <c r="K14">
         <v>30.9</v>
@@ -1519,19 +1591,19 @@
         <v>52.7</v>
       </c>
       <c r="O14">
-        <v>17.91158615904612</v>
+        <v>18.449359999999999</v>
       </c>
       <c r="P14">
-        <v>6.276015854480418</v>
+        <v>6.379319999999999</v>
       </c>
       <c r="Q14">
-        <v>31.12061783330118</v>
+        <v>31.120617833301178</v>
       </c>
       <c r="R14">
-        <v>11.6355703045657</v>
+        <v>12.070040000000001</v>
       </c>
       <c r="S14">
-        <v>2.409132651444493</v>
+        <v>2.3921418984526981</v>
       </c>
       <c r="T14">
         <v>106.3406948228883</v>
@@ -1546,23 +1618,21 @@
         <v>0.3</v>
       </c>
       <c r="X14">
-        <v>52.37983908266176</v>
+        <v>50.494389429376227</v>
       </c>
       <c r="Y14">
-        <v>21.58815535491746</v>
+        <v>20.811074311106559</v>
       </c>
       <c r="Z14">
-        <v>30.17937809390827</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>30.17937809390828</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>19</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>CTED</t>
-        </is>
+      <c r="B15" t="s">
+        <v>27</v>
       </c>
       <c r="C15">
         <v>1981</v>
@@ -1583,7 +1653,7 @@
         <v>13.7</v>
       </c>
       <c r="I15">
-        <v>27.97689123470783</v>
+        <v>26.7952550351003</v>
       </c>
       <c r="J15">
         <v>96.8</v>
@@ -1601,19 +1671,19 @@
         <v>40.5</v>
       </c>
       <c r="O15">
-        <v>18.38058855153268</v>
+        <v>18.8264</v>
       </c>
       <c r="P15">
-        <v>11.29974463867365</v>
+        <v>11.433299999999999</v>
       </c>
       <c r="Q15">
-        <v>46.5828311581846</v>
+        <v>46.582831158184597</v>
       </c>
       <c r="R15">
-        <v>7.080843912859027</v>
+        <v>7.3930999999999987</v>
       </c>
       <c r="S15">
-        <v>5.142317267361457</v>
+        <v>5.0445818939281226</v>
       </c>
       <c r="T15">
         <v>113.0376810889645</v>
@@ -1628,23 +1698,21 @@
         <v>0.3</v>
       </c>
       <c r="X15">
-        <v>46.66314444226552</v>
+        <v>44.692272832542777</v>
       </c>
       <c r="Y15">
-        <v>30.80759009626273</v>
+        <v>29.5063960724159</v>
       </c>
       <c r="Z15">
-        <v>42.75664458290856</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>42.756644582901032</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>20</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>CTED</t>
-        </is>
+      <c r="B16" t="s">
+        <v>27</v>
       </c>
       <c r="C16">
         <v>1501</v>
@@ -1656,7 +1724,7 @@
         <v>34.1</v>
       </c>
       <c r="F16">
-        <v>80.40000000000001</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="G16">
         <v>28.7</v>
@@ -1665,7 +1733,7 @@
         <v>15.3</v>
       </c>
       <c r="I16">
-        <v>17.12180392317009</v>
+        <v>17.79794060871091</v>
       </c>
       <c r="J16">
         <v>97.2</v>
@@ -1683,22 +1751,22 @@
         <v>41.4</v>
       </c>
       <c r="O16">
-        <v>20.46667125209452</v>
+        <v>21.07752</v>
       </c>
       <c r="P16">
-        <v>11.70007161846146</v>
+        <v>12.64396</v>
       </c>
       <c r="Q16">
-        <v>38.3078748744367</v>
+        <v>38.307874874436699</v>
       </c>
       <c r="R16">
-        <v>8.766599633633056</v>
+        <v>8.4335599999999999</v>
       </c>
       <c r="S16">
-        <v>3.504263321383445</v>
+        <v>3.7513644913891642</v>
       </c>
       <c r="T16">
-        <v>115.9228005284016</v>
+        <v>115.92280052840159</v>
       </c>
       <c r="U16">
         <v>2701.8</v>
@@ -1710,23 +1778,21 @@
         <v>0.3</v>
       </c>
       <c r="X16">
-        <v>37.07078853730176</v>
+        <v>38.534706720795207</v>
       </c>
       <c r="Y16">
-        <v>21.69421110966239</v>
+        <v>22.550911260004611</v>
       </c>
       <c r="Z16">
-        <v>40.79396728296847</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>40.793967283025431</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>30</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>CTED</t>
-        </is>
+      <c r="B17" t="s">
+        <v>27</v>
       </c>
       <c r="C17">
         <v>3162</v>
@@ -1738,7 +1804,7 @@
         <v>39.6</v>
       </c>
       <c r="F17">
-        <v>65.40000000000001</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="G17">
         <v>28.2</v>
@@ -1747,7 +1813,7 @@
         <v>15.9</v>
       </c>
       <c r="I17">
-        <v>36.85267148272226</v>
+        <v>33.239564542782531</v>
       </c>
       <c r="J17">
         <v>93</v>
@@ -1765,19 +1831,19 @@
         <v>52.3</v>
       </c>
       <c r="O17">
-        <v>20.47365120641535</v>
+        <v>20.911079999999998</v>
       </c>
       <c r="P17">
-        <v>11.89354053117584</v>
+        <v>11.39832</v>
       </c>
       <c r="Q17">
-        <v>82.64264735360507</v>
+        <v>82.642647353605071</v>
       </c>
       <c r="R17">
-        <v>8.580110675239512</v>
+        <v>9.5127600000000019</v>
       </c>
       <c r="S17">
-        <v>7.545087419618654</v>
+        <v>6.9507519331928886</v>
       </c>
       <c r="T17">
         <v>116.7178196678091</v>
@@ -1792,23 +1858,21 @@
         <v>0.3</v>
       </c>
       <c r="X17">
-        <v>82.25434476096208</v>
+        <v>74.189970268183259</v>
       </c>
       <c r="Y17">
-        <v>42.44680307776863</v>
+        <v>38.285236694434829</v>
       </c>
       <c r="Z17">
-        <v>38.74331805014727</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>38.743318050147252</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>31</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>CTED</t>
-        </is>
+      <c r="B18" t="s">
+        <v>27</v>
       </c>
       <c r="C18">
         <v>1492</v>
@@ -1820,7 +1884,7 @@
         <v>31.8</v>
       </c>
       <c r="F18">
-        <v>80.90000000000001</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="G18">
         <v>27.9</v>
@@ -1829,10 +1893,10 @@
         <v>13</v>
       </c>
       <c r="I18">
-        <v>19.04792862484754</v>
+        <v>18.61788414984153</v>
       </c>
       <c r="J18">
-        <v>97.59999999999999</v>
+        <v>97.6</v>
       </c>
       <c r="K18">
         <v>54.5</v>
@@ -1847,19 +1911,19 @@
         <v>32.9</v>
       </c>
       <c r="O18">
-        <v>17.44172295016941</v>
+        <v>18.022079999999999</v>
       </c>
       <c r="P18">
-        <v>9.608850256317945</v>
+        <v>10.008279999999999</v>
       </c>
       <c r="Q18">
-        <v>46.47793315642958</v>
+        <v>46.477933156429579</v>
       </c>
       <c r="R18">
-        <v>7.832872693851465</v>
+        <v>8.013799999999998</v>
       </c>
       <c r="S18">
-        <v>3.322286938491922</v>
+        <v>3.3553299757917601</v>
       </c>
       <c r="T18">
         <v>122.0326269702277</v>
@@ -1874,23 +1938,21 @@
         <v>0.3</v>
       </c>
       <c r="X18">
-        <v>37.51678767844064</v>
+        <v>36.669772363274497</v>
       </c>
       <c r="Y18">
-        <v>19.61292603335911</v>
+        <v>19.17012562994174</v>
       </c>
       <c r="Z18">
-        <v>40.07305350787005</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>40.073053507819893</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>33</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>CTED</t>
-        </is>
+      <c r="B19" t="s">
+        <v>27</v>
       </c>
       <c r="C19">
         <v>1348</v>
@@ -1902,7 +1964,7 @@
         <v>35.1</v>
       </c>
       <c r="F19">
-        <v>91.40000000000001</v>
+        <v>91.4</v>
       </c>
       <c r="G19">
         <v>34.6</v>
@@ -1911,7 +1973,7 @@
         <v>13.7</v>
       </c>
       <c r="I19">
-        <v>22.99046239377679</v>
+        <v>20.887501898159488</v>
       </c>
       <c r="J19">
         <v>98.2</v>
@@ -1929,22 +1991,22 @@
         <v>45.9</v>
       </c>
       <c r="O19">
-        <v>18.64792228691477</v>
+        <v>19.12724</v>
       </c>
       <c r="P19">
-        <v>12.78462133666992</v>
+        <v>12.67362</v>
       </c>
       <c r="Q19">
-        <v>36.45445405583455</v>
+        <v>36.454454055834553</v>
       </c>
       <c r="R19">
-        <v>5.863300950244852</v>
+        <v>6.453619999999999</v>
       </c>
       <c r="S19">
-        <v>4.287243560593862</v>
+        <v>3.99520261806552</v>
       </c>
       <c r="T19">
-        <v>117.8252124072825</v>
+        <v>117.82521240728251</v>
       </c>
       <c r="U19">
         <v>2426.4</v>
@@ -1956,23 +2018,21 @@
         <v>0.3</v>
       </c>
       <c r="X19">
-        <v>28.45869728488758</v>
+        <v>25.855551897201181</v>
       </c>
       <c r="Y19">
-        <v>21.41891189466974</v>
+        <v>19.459702688603901</v>
       </c>
       <c r="Z19">
-        <v>47.67102583226159</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>47.671025832491708</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>43</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>CTED</t>
-        </is>
+      <c r="B20" t="s">
+        <v>27</v>
       </c>
       <c r="C20">
         <v>1554</v>
@@ -1987,16 +2047,16 @@
         <v>109</v>
       </c>
       <c r="G20">
-        <v>36.8</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="H20">
         <v>15.4</v>
       </c>
       <c r="I20">
-        <v>25.37268728755277</v>
+        <v>23.889315910837819</v>
       </c>
       <c r="J20">
-        <v>98.90000000000001</v>
+        <v>98.9</v>
       </c>
       <c r="K20">
         <v>69.8</v>
@@ -2011,22 +2071,22 @@
         <v>31.5</v>
       </c>
       <c r="O20">
-        <v>21.25905892629244</v>
+        <v>21.67164</v>
       </c>
       <c r="P20">
-        <v>15.13436278201624</v>
+        <v>15.166639999999999</v>
       </c>
       <c r="Q20">
-        <v>54.75759472612744</v>
+        <v>54.757594726127437</v>
       </c>
       <c r="R20">
-        <v>6.124696144276193</v>
+        <v>6.5050000000000008</v>
       </c>
       <c r="S20">
-        <v>5.393994541644752</v>
+        <v>5.1772065426594924</v>
       </c>
       <c r="T20">
-        <v>125.2436972193615</v>
+        <v>125.24369721936149</v>
       </c>
       <c r="U20">
         <v>2797.2</v>
@@ -2035,26 +2095,24 @@
         <v>0.24</v>
       </c>
       <c r="W20">
-        <v>0.2999999999999999</v>
+        <v>0.29999999999999988</v>
       </c>
       <c r="X20">
-        <v>30.49368086870986</v>
+        <v>28.71091923772088</v>
       </c>
       <c r="Y20">
-        <v>24.68286748777916</v>
+        <v>23.23982526242601</v>
       </c>
       <c r="Z20">
-        <v>51.26873941984089</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>51.268739419840863</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>45</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>CTED</t>
-        </is>
+      <c r="B21" t="s">
+        <v>27</v>
       </c>
       <c r="C21">
         <v>2226</v>
@@ -2063,10 +2121,10 @@
         <v>2716</v>
       </c>
       <c r="E21">
-        <v>35.7</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="F21">
-        <v>83.40000000000001</v>
+        <v>83.4</v>
       </c>
       <c r="G21">
         <v>44</v>
@@ -2075,13 +2133,13 @@
         <v>17.5</v>
       </c>
       <c r="I21">
-        <v>54.4616609654107</v>
+        <v>35.060197697934171</v>
       </c>
       <c r="J21">
         <v>96</v>
       </c>
       <c r="K21">
-        <v>70.59999999999999</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="L21">
         <v>7.3</v>
@@ -2093,19 +2151,19 @@
         <v>55.2</v>
       </c>
       <c r="O21">
-        <v>23.49110189663042</v>
+        <v>23.78688</v>
       </c>
       <c r="P21">
-        <v>19.40382295481893</v>
+        <v>17.437799999999999</v>
       </c>
       <c r="Q21">
-        <v>65.64144208157809</v>
+        <v>65.641442081578091</v>
       </c>
       <c r="R21">
-        <v>4.087278941811491</v>
+        <v>6.3490800000000043</v>
       </c>
       <c r="S21">
-        <v>12.79364427198202</v>
+        <v>8.3397271541703635</v>
       </c>
       <c r="T21">
         <v>120.4707216494845</v>
@@ -2120,23 +2178,21 @@
         <v>0.3</v>
       </c>
       <c r="X21">
-        <v>40.08429787159954</v>
+        <v>25.80463729987461</v>
       </c>
       <c r="Y21">
-        <v>36.60128222202129</v>
+        <v>23.56241377795946</v>
       </c>
       <c r="Z21">
-        <v>55.83425371256717</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>55.834253712567168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>46</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>CTED</t>
-        </is>
+      <c r="B22" t="s">
+        <v>27</v>
       </c>
       <c r="C22">
         <v>2479</v>
@@ -2145,22 +2201,22 @@
         <v>2490</v>
       </c>
       <c r="E22">
-        <v>37.7</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="F22">
         <v>61.1</v>
       </c>
       <c r="G22">
-        <v>36.7</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="H22">
         <v>14.9</v>
       </c>
       <c r="I22">
-        <v>58.18984390043456</v>
+        <v>26.721021327233899</v>
       </c>
       <c r="J22">
-        <v>92.09999999999999</v>
+        <v>92.1</v>
       </c>
       <c r="K22">
         <v>48</v>
@@ -2175,22 +2231,22 @@
         <v>47.9</v>
       </c>
       <c r="O22">
-        <v>18.874577676682</v>
+        <v>19.407579999999999</v>
       </c>
       <c r="P22">
-        <v>14.61438408647117</v>
+        <v>10.130240000000001</v>
       </c>
       <c r="Q22">
-        <v>56.98683810016409</v>
+        <v>56.986838100164093</v>
       </c>
       <c r="R22">
-        <v>4.260193590210829</v>
+        <v>9.2773399999999953</v>
       </c>
       <c r="S22">
-        <v>10.98308728692753</v>
+        <v>5.1859035908999793</v>
       </c>
       <c r="T22">
-        <v>112.1965461847389</v>
+        <v>112.19654618473891</v>
       </c>
       <c r="U22">
         <v>4462.2</v>
@@ -2202,23 +2258,21 @@
         <v>0.3</v>
       </c>
       <c r="X22">
-        <v>55.14684678715562</v>
+        <v>25.32366424015073</v>
       </c>
       <c r="Y22">
-        <v>37.98248379044563</v>
+        <v>17.441716481700929</v>
       </c>
       <c r="Z22">
-        <v>45.25319178112471</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>45.253191781171367</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>47</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>CTED</t>
-        </is>
+      <c r="B23" t="s">
+        <v>27</v>
       </c>
       <c r="C23">
         <v>1807</v>
@@ -2239,7 +2293,7 @@
         <v>17</v>
       </c>
       <c r="I23">
-        <v>30.88663848739723</v>
+        <v>26.749763145428702</v>
       </c>
       <c r="J23">
         <v>93.7</v>
@@ -2257,19 +2311,19 @@
         <v>46.2</v>
       </c>
       <c r="O23">
-        <v>21.68955197742432</v>
+        <v>22.502520000000001</v>
       </c>
       <c r="P23">
-        <v>15.83912574623275</v>
+        <v>15.74732</v>
       </c>
       <c r="Q23">
-        <v>51.21211277797879</v>
+        <v>51.212112777978788</v>
       </c>
       <c r="R23">
-        <v>5.850426231191575</v>
+        <v>6.7552000000000021</v>
       </c>
       <c r="S23">
-        <v>6.699173508803168</v>
+        <v>6.0193708017527223</v>
       </c>
       <c r="T23">
         <v>119.2859782608696</v>
@@ -2284,23 +2338,21 @@
         <v>0.3</v>
       </c>
       <c r="X23">
-        <v>41.39944361888163</v>
+        <v>35.854510731759191</v>
       </c>
       <c r="Y23">
-        <v>24.68226470134089</v>
+        <v>21.376386909926961</v>
       </c>
       <c r="Z23">
-        <v>43.94865319061734</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>43.948653190962112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>48</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>CTED</t>
-        </is>
+      <c r="B24" t="s">
+        <v>27</v>
       </c>
       <c r="C24">
         <v>2555</v>
@@ -2321,10 +2373,10 @@
         <v>16.5</v>
       </c>
       <c r="I24">
-        <v>31.92757747614587</v>
+        <v>26.450042030203779</v>
       </c>
       <c r="J24">
-        <v>89.90000000000001</v>
+        <v>89.9</v>
       </c>
       <c r="K24">
         <v>48.5</v>
@@ -2339,19 +2391,19 @@
         <v>47.1</v>
       </c>
       <c r="O24">
-        <v>20.66712375141105</v>
+        <v>20.955380000000002</v>
       </c>
       <c r="P24">
-        <v>12.66463749353908</v>
+        <v>11.29566</v>
       </c>
       <c r="Q24">
-        <v>61.29870383098619</v>
+        <v>61.298703830986192</v>
       </c>
       <c r="R24">
-        <v>8.00248625787197</v>
+        <v>9.6597200000000001</v>
       </c>
       <c r="S24">
-        <v>6.598511947822709</v>
+        <v>5.5427068175889156</v>
       </c>
       <c r="T24">
         <v>113.7669781312127</v>
@@ -2366,23 +2418,21 @@
         <v>0.3</v>
       </c>
       <c r="X24">
-        <v>67.27251552368854</v>
+        <v>55.731157943583909</v>
       </c>
       <c r="Y24">
-        <v>35.00370973978767</v>
+        <v>28.99842916432258</v>
       </c>
       <c r="Z24">
-        <v>38.28075303745782</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>38.280753037457821</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>53</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>CTED</t>
-        </is>
+      <c r="B25" t="s">
+        <v>27</v>
       </c>
       <c r="C25">
         <v>1001</v>
@@ -2403,10 +2453,10 @@
         <v>14.1</v>
       </c>
       <c r="I25">
-        <v>14.13800306976982</v>
+        <v>13.40927906035918</v>
       </c>
       <c r="J25">
-        <v>96.59999999999999</v>
+        <v>96.6</v>
       </c>
       <c r="K25">
         <v>59.5</v>
@@ -2421,19 +2471,19 @@
         <v>42.8</v>
       </c>
       <c r="O25">
-        <v>18.66491376044402</v>
+        <v>19.307880000000001</v>
       </c>
       <c r="P25">
-        <v>11.58470593293011</v>
+        <v>11.8429</v>
       </c>
       <c r="Q25">
         <v>19.7446911432618</v>
       </c>
       <c r="R25">
-        <v>7.080207827513913</v>
+        <v>7.4649799999999971</v>
       </c>
       <c r="S25">
-        <v>2.638846080421466</v>
+        <v>2.5890475098392769</v>
       </c>
       <c r="T25">
         <v>105.9878327444052</v>
@@ -2448,23 +2498,21 @@
         <v>0.3</v>
       </c>
       <c r="X25">
-        <v>24.00764837015643</v>
+        <v>22.77020700799671</v>
       </c>
       <c r="Y25">
-        <v>16.98660869977671</v>
+        <v>16.11105721369314</v>
       </c>
       <c r="Z25">
-        <v>41.99742331616726</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>41.997423316165722</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>55</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>CTED</t>
-        </is>
+      <c r="B26" t="s">
+        <v>27</v>
       </c>
       <c r="C26">
         <v>2067</v>
@@ -2473,7 +2521,7 @@
         <v>2342</v>
       </c>
       <c r="E26">
-        <v>36.2</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="F26">
         <v>69.8</v>
@@ -2485,7 +2533,7 @@
         <v>15.6</v>
       </c>
       <c r="I26">
-        <v>91.85758874606127</v>
+        <v>31.7402307040281</v>
       </c>
       <c r="J26">
         <v>94.8</v>
@@ -2503,19 +2551,19 @@
         <v>33</v>
       </c>
       <c r="O26">
-        <v>20.37246435230345</v>
+        <v>20.927679999999999</v>
       </c>
       <c r="P26">
-        <v>18.12224199374123</v>
+        <v>14.41544</v>
       </c>
       <c r="Q26">
-        <v>55.82064935003027</v>
+        <v>55.820649350030273</v>
       </c>
       <c r="R26">
-        <v>2.250222358562215</v>
+        <v>6.512240000000002</v>
       </c>
       <c r="S26">
-        <v>18.71365452217684</v>
+        <v>6.6424939130007479</v>
       </c>
       <c r="T26">
         <v>117.7806404782237</v>
@@ -2530,23 +2578,21 @@
         <v>0.3</v>
       </c>
       <c r="X26">
-        <v>36.89473939579285</v>
+        <v>12.74851164910009</v>
       </c>
       <c r="Y26">
-        <v>34.34827203890784</v>
+        <v>11.868611986033651</v>
       </c>
       <c r="Z26">
-        <v>56.32455911851155</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>56.324559118511978</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>CTEPH</t>
-        </is>
+      <c r="B27" t="s">
+        <v>28</v>
       </c>
       <c r="C27">
         <v>1483</v>
@@ -2567,10 +2613,10 @@
         <v>15.3</v>
       </c>
       <c r="I27">
-        <v>14.5697216500963</v>
+        <v>11.51345669216759</v>
       </c>
       <c r="J27">
-        <v>92.59999999999999</v>
+        <v>92.6</v>
       </c>
       <c r="K27">
         <v>33.1</v>
@@ -2585,19 +2631,19 @@
         <v>44.7</v>
       </c>
       <c r="O27">
-        <v>19.83469893445105</v>
+        <v>20.050280000000001</v>
       </c>
       <c r="P27">
-        <v>9.65605561088284</v>
+        <v>7.1696999999999989</v>
       </c>
       <c r="Q27">
-        <v>47.91182167774228</v>
+        <v>47.911821677742282</v>
       </c>
       <c r="R27">
-        <v>10.17864332356821</v>
+        <v>12.88058</v>
       </c>
       <c r="S27">
-        <v>2.889860424884136</v>
+        <v>2.3084803044583402</v>
       </c>
       <c r="T27">
         <v>123.0236195587358</v>
@@ -2612,23 +2658,21 @@
         <v>0.3</v>
       </c>
       <c r="X27">
-        <v>41.55569539225131</v>
+        <v>32.83863005082565</v>
       </c>
       <c r="Y27">
-        <v>17.90370764211876</v>
+        <v>14.14807828984171</v>
       </c>
       <c r="Z27">
-        <v>35.9894439533342</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>35.989443953321008</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>4</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>CTEPH</t>
-        </is>
+      <c r="B28" t="s">
+        <v>28</v>
       </c>
       <c r="C28">
         <v>1235</v>
@@ -2637,10 +2681,10 @@
         <v>1474</v>
       </c>
       <c r="E28">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="F28">
-        <v>64.40000000000001</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="G28">
         <v>23.9</v>
@@ -2649,13 +2693,13 @@
         <v>15.9</v>
       </c>
       <c r="I28">
-        <v>11.25528609782931</v>
+        <v>9.1730580970249562</v>
       </c>
       <c r="J28">
         <v>92.7</v>
       </c>
       <c r="K28">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="L28">
         <v>7.44</v>
@@ -2667,19 +2711,19 @@
         <v>42.8</v>
       </c>
       <c r="O28">
-        <v>20.39982527884965</v>
+        <v>20.841100000000001</v>
       </c>
       <c r="P28">
-        <v>9.427203265818985</v>
+        <v>7.3777599999999994</v>
       </c>
       <c r="Q28">
-        <v>38.1917724454394</v>
+        <v>38.191772445439398</v>
       </c>
       <c r="R28">
-        <v>10.97262201303067</v>
+        <v>13.463340000000001</v>
       </c>
       <c r="S28">
-        <v>2.296058698591835</v>
+        <v>1.9117662110590681</v>
       </c>
       <c r="T28">
         <v>121.8293894165536</v>
@@ -2694,23 +2738,21 @@
         <v>0.3</v>
       </c>
       <c r="X28">
-        <v>35.82031441302301</v>
+        <v>29.19355601521595</v>
       </c>
       <c r="Y28">
-        <v>14.86736915167397</v>
+        <v>12.11690576257533</v>
       </c>
       <c r="Z28">
-        <v>34.77978333496992</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>34.77978333496641</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>5</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>CTEPH</t>
-        </is>
+      <c r="B29" t="s">
+        <v>28</v>
       </c>
       <c r="C29">
         <v>1231</v>
@@ -2725,13 +2767,13 @@
         <v>60.2</v>
       </c>
       <c r="G29">
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="H29">
         <v>15.7</v>
       </c>
       <c r="I29">
-        <v>8.526316020744424</v>
+        <v>7.9756906650080346</v>
       </c>
       <c r="J29">
         <v>91.8</v>
@@ -2746,28 +2788,28 @@
         <v>7.37</v>
       </c>
       <c r="N29">
-        <v>40.8</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="O29">
-        <v>19.79723240025156</v>
+        <v>20.370280000000001</v>
       </c>
       <c r="P29">
-        <v>5.359578470875827</v>
+        <v>4.9358799999999992</v>
       </c>
       <c r="Q29">
-        <v>59.07584082962131</v>
+        <v>59.075840829621313</v>
       </c>
       <c r="R29">
-        <v>14.43765392937573</v>
+        <v>15.4344</v>
       </c>
       <c r="S29">
-        <v>1.687974597806655</v>
+        <v>1.624670520395999</v>
       </c>
       <c r="T29">
-        <v>131.7510342417889</v>
+        <v>131.75103424178889</v>
       </c>
       <c r="U29">
-        <v>2215.8</v>
+        <v>2215.8000000000002</v>
       </c>
       <c r="V29">
         <v>0.24</v>
@@ -2776,23 +2818,21 @@
         <v>0.3</v>
       </c>
       <c r="X29">
-        <v>42.92806183852145</v>
+        <v>40.155788413098918</v>
       </c>
       <c r="Y29">
-        <v>12.52492010473909</v>
+        <v>11.71606683546516</v>
       </c>
       <c r="Z29">
-        <v>28.97848714111743</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>28.97848714110679</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>7</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>CTEPH</t>
-        </is>
+      <c r="B30" t="s">
+        <v>28</v>
       </c>
       <c r="C30">
         <v>1130</v>
@@ -2801,7 +2841,7 @@
         <v>1128</v>
       </c>
       <c r="E30">
-        <v>34.2</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="F30">
         <v>61</v>
@@ -2810,10 +2850,10 @@
         <v>26.3</v>
       </c>
       <c r="H30">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="I30">
-        <v>11.34141010729334</v>
+        <v>9.0660522076238266</v>
       </c>
       <c r="J30">
         <v>89.2</v>
@@ -2831,19 +2871,19 @@
         <v>48</v>
       </c>
       <c r="O30">
-        <v>21.62479554364912</v>
+        <v>21.549679999999999</v>
       </c>
       <c r="P30">
-        <v>11.66130785287839</v>
+        <v>9.0856000000000012</v>
       </c>
       <c r="Q30">
         <v>28.45768433162284</v>
       </c>
       <c r="R30">
-        <v>9.963487690770734</v>
+        <v>12.464079999999999</v>
       </c>
       <c r="S30">
-        <v>2.452556747468942</v>
+        <v>1.95370523937587</v>
       </c>
       <c r="T30">
         <v>115.4693617021276</v>
@@ -2858,23 +2898,21 @@
         <v>0.3</v>
       </c>
       <c r="X30">
-        <v>31.24950003790235</v>
+        <v>24.980103543172021</v>
       </c>
       <c r="Y30">
-        <v>14.90143114552535</v>
+        <v>11.91184794973311</v>
       </c>
       <c r="Z30">
-        <v>36.46193233121048</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>36.46193233121047</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>10</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>CTEPH</t>
-        </is>
+      <c r="B31" t="s">
+        <v>28</v>
       </c>
       <c r="C31">
         <v>859</v>
@@ -2895,7 +2933,7 @@
         <v>15.1</v>
       </c>
       <c r="I31">
-        <v>7.061582124093881</v>
+        <v>7.2570902362989704</v>
       </c>
       <c r="J31">
         <v>91</v>
@@ -2913,19 +2951,19 @@
         <v>40.4</v>
       </c>
       <c r="O31">
-        <v>18.0436821170702</v>
+        <v>19.40156</v>
       </c>
       <c r="P31">
-        <v>5.879269314036719</v>
+        <v>7.5648599999999986</v>
       </c>
       <c r="Q31">
         <v>30.87961491303755</v>
       </c>
       <c r="R31">
-        <v>12.16441280303349</v>
+        <v>11.8367</v>
       </c>
       <c r="S31">
-        <v>1.274169430907354</v>
+        <v>1.407988716449686</v>
       </c>
       <c r="T31">
         <v>125.7285294117647</v>
@@ -2940,23 +2978,21 @@
         <v>0.3</v>
       </c>
       <c r="X31">
-        <v>30.06445206813596</v>
+        <v>30.896821382126738</v>
       </c>
       <c r="Y31">
-        <v>9.158993200580147</v>
+        <v>9.4125705772752362</v>
       </c>
       <c r="Z31">
-        <v>28.87311365942995</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>28.873113659429951</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>11</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>CTEPH</t>
-        </is>
+      <c r="B32" t="s">
+        <v>28</v>
       </c>
       <c r="C32">
         <v>1056</v>
@@ -2977,7 +3013,7 @@
         <v>15.5</v>
       </c>
       <c r="I32">
-        <v>11.4456305742606</v>
+        <v>11.283618451280629</v>
       </c>
       <c r="J32">
         <v>90.2</v>
@@ -2995,22 +3031,22 @@
         <v>38.4</v>
       </c>
       <c r="O32">
-        <v>18.83237443131638</v>
+        <v>19.74492</v>
       </c>
       <c r="P32">
-        <v>9.606146193837038</v>
+        <v>10.38622</v>
       </c>
       <c r="Q32">
         <v>29.54314609932176</v>
       </c>
       <c r="R32">
-        <v>9.22622823747934</v>
+        <v>9.3587000000000007</v>
       </c>
       <c r="S32">
-        <v>2.155484005769983</v>
+        <v>2.2279414363105978</v>
       </c>
       <c r="T32">
-        <v>118.8893345656192</v>
+        <v>118.88933456561919</v>
       </c>
       <c r="U32">
         <v>1900.8</v>
@@ -3022,23 +3058,21 @@
         <v>0.3</v>
       </c>
       <c r="X32">
-        <v>31.44955663188414</v>
+        <v>31.00439029494429</v>
       </c>
       <c r="Y32">
-        <v>12.78154663849172</v>
+        <v>12.600624714406001</v>
       </c>
       <c r="Z32">
-        <v>33.87843457920549</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>33.878434579205489</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>12</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>CTEPH</t>
-        </is>
+      <c r="B33" t="s">
+        <v>28</v>
       </c>
       <c r="C33">
         <v>1340</v>
@@ -3059,7 +3093,7 @@
         <v>15.8</v>
       </c>
       <c r="I33">
-        <v>13.52801752058867</v>
+        <v>14.48617327192925</v>
       </c>
       <c r="J33">
         <v>86.8</v>
@@ -3077,19 +3111,19 @@
         <v>30.2</v>
       </c>
       <c r="O33">
-        <v>17.20388126548563</v>
+        <v>19.336480000000002</v>
       </c>
       <c r="P33">
-        <v>7.298512663171088</v>
+        <v>10.08628</v>
       </c>
       <c r="Q33">
-        <v>52.53571086185408</v>
+        <v>52.535710861854078</v>
       </c>
       <c r="R33">
-        <v>9.905368602314539</v>
+        <v>9.2502000000000013</v>
       </c>
       <c r="S33">
-        <v>2.327344071816168</v>
+        <v>2.8011159974919462</v>
       </c>
       <c r="T33">
         <v>127.722700729927</v>
@@ -3104,23 +3138,21 @@
         <v>0.3</v>
       </c>
       <c r="X33">
-        <v>47.33427604847984</v>
+        <v>50.686844801617518</v>
       </c>
       <c r="Y33">
-        <v>13.74196131800189</v>
+        <v>14.71527017508344</v>
       </c>
       <c r="Z33">
-        <v>28.60970855754258</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>28.60970855754244</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>14</v>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>CTEPH</t>
-        </is>
+      <c r="B34" t="s">
+        <v>28</v>
       </c>
       <c r="C34">
         <v>638</v>
@@ -3141,10 +3173,10 @@
         <v>15</v>
       </c>
       <c r="I34">
-        <v>6.158031248939468</v>
+        <v>5.9090269184887703</v>
       </c>
       <c r="J34">
-        <v>86.40000000000001</v>
+        <v>86.4</v>
       </c>
       <c r="K34">
         <v>35.4</v>
@@ -3159,25 +3191,25 @@
         <v>29.7</v>
       </c>
       <c r="O34">
-        <v>17.41385037243436</v>
+        <v>18.297599999999999</v>
       </c>
       <c r="P34">
-        <v>7.053396288836202</v>
+        <v>7.5005600000000001</v>
       </c>
       <c r="Q34">
-        <v>19.71698495217152</v>
+        <v>19.716984952171519</v>
       </c>
       <c r="R34">
-        <v>10.36045408359816</v>
+        <v>10.797040000000001</v>
       </c>
       <c r="S34">
-        <v>1.07235034757807</v>
+        <v>1.081210109437402</v>
       </c>
       <c r="T34">
         <v>121.8112006319115</v>
       </c>
       <c r="U34">
-        <v>1148.4</v>
+        <v>1148.4000000000001</v>
       </c>
       <c r="V34">
         <v>0.24</v>
@@ -3186,23 +3218,21 @@
         <v>0.3</v>
       </c>
       <c r="X34">
-        <v>21.57341474230572</v>
+        <v>20.701078524051962</v>
       </c>
       <c r="Y34">
-        <v>7.115804439923527</v>
+        <v>6.8280718759670842</v>
       </c>
       <c r="Z34">
-        <v>29.87415688939048</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>29.874156889342188</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>15</v>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>CTEPH</t>
-        </is>
+      <c r="B35" t="s">
+        <v>28</v>
       </c>
       <c r="C35">
         <v>1456</v>
@@ -3223,7 +3253,7 @@
         <v>18.2</v>
       </c>
       <c r="I35">
-        <v>10.85179422902729</v>
+        <v>11.07379283489097</v>
       </c>
       <c r="J35">
         <v>91.2</v>
@@ -3241,25 +3271,25 @@
         <v>36.4</v>
       </c>
       <c r="O35">
-        <v>21.96194492123458</v>
+        <v>23.40672</v>
       </c>
       <c r="P35">
-        <v>8.544808830454594</v>
+        <v>10.258559999999999</v>
       </c>
       <c r="Q35">
-        <v>39.26678523005406</v>
+        <v>39.266785230054062</v>
       </c>
       <c r="R35">
-        <v>13.41713609077998</v>
+        <v>13.148160000000001</v>
       </c>
       <c r="S35">
-        <v>2.383265071544686</v>
+        <v>2.5920116822429908</v>
       </c>
       <c r="T35">
-        <v>117.7371748878924</v>
+        <v>117.73717488789239</v>
       </c>
       <c r="U35">
-        <v>2620.8</v>
+        <v>2620.8000000000002</v>
       </c>
       <c r="V35">
         <v>0.24</v>
@@ -3268,23 +3298,21 @@
         <v>0.3</v>
       </c>
       <c r="X35">
-        <v>47.94531277614035</v>
+        <v>48.926145288199052</v>
       </c>
       <c r="Y35">
-        <v>17.31248148253221</v>
+        <v>17.66664842230723</v>
       </c>
       <c r="Z35">
         <v>30.66905910143446</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>16</v>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>CTEPH</t>
-        </is>
+      <c r="B36" t="s">
+        <v>28</v>
       </c>
       <c r="C36">
         <v>776</v>
@@ -3296,7 +3324,7 @@
         <v>30.4</v>
       </c>
       <c r="F36">
-        <v>78.40000000000001</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="G36">
         <v>25.7</v>
@@ -3305,10 +3333,10 @@
         <v>15.8</v>
       </c>
       <c r="I36">
-        <v>7.312179948805221</v>
+        <v>7.223980636752934</v>
       </c>
       <c r="J36">
-        <v>96.40000000000001</v>
+        <v>96.4</v>
       </c>
       <c r="K36">
         <v>48.6</v>
@@ -3323,22 +3351,22 @@
         <v>40.1</v>
       </c>
       <c r="O36">
-        <v>21.04989064376614</v>
+        <v>21.574560000000002</v>
       </c>
       <c r="P36">
-        <v>10.43746035029675</v>
+        <v>10.832560000000001</v>
       </c>
       <c r="Q36">
-        <v>27.64406702692884</v>
+        <v>27.644067026928841</v>
       </c>
       <c r="R36">
-        <v>10.61243029346939</v>
+        <v>10.742000000000001</v>
       </c>
       <c r="S36">
-        <v>1.539205882898894</v>
+        <v>1.5585420368646441</v>
       </c>
       <c r="T36">
-        <v>125.5098767967146</v>
+        <v>125.50987679671459</v>
       </c>
       <c r="U36">
         <v>1396.8</v>
@@ -3350,23 +3378,21 @@
         <v>0.3</v>
       </c>
       <c r="X36">
-        <v>20.74307415891983</v>
+        <v>20.492871772415011</v>
       </c>
       <c r="Y36">
-        <v>9.450276190149076</v>
+        <v>9.3362872204422445</v>
       </c>
       <c r="Z36">
-        <v>37.71451219065356</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>37.714512190384532</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>17</v>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>CTEPH</t>
-        </is>
+      <c r="B37" t="s">
+        <v>28</v>
       </c>
       <c r="C37">
         <v>937</v>
@@ -3387,7 +3413,7 @@
         <v>14.4</v>
       </c>
       <c r="I37">
-        <v>11.01739282208045</v>
+        <v>11.29459980713597</v>
       </c>
       <c r="J37">
         <v>91.8</v>
@@ -3405,22 +3431,22 @@
         <v>41.7</v>
       </c>
       <c r="O37">
-        <v>17.43439153341464</v>
+        <v>18.676480000000002</v>
       </c>
       <c r="P37">
-        <v>8.929657109113119</v>
+        <v>10.38048</v>
       </c>
       <c r="Q37">
         <v>22.9698650376146</v>
       </c>
       <c r="R37">
-        <v>8.504734424301517</v>
+        <v>8.2959999999999976</v>
       </c>
       <c r="S37">
-        <v>1.920815401375825</v>
+        <v>2.1094336740597881</v>
       </c>
       <c r="T37">
-        <v>114.5336432160804</v>
+        <v>114.53364321608041</v>
       </c>
       <c r="U37">
         <v>1686.6</v>
@@ -3432,23 +3458,21 @@
         <v>0.3</v>
       </c>
       <c r="X37">
-        <v>27.99134492226145</v>
+        <v>28.695630995153572</v>
       </c>
       <c r="Y37">
-        <v>11.95142249599424</v>
+        <v>12.2521304630007</v>
       </c>
       <c r="Z37">
-        <v>33.77544148650932</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>33.775441486658529</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>18</v>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>CTEPH</t>
-        </is>
+      <c r="B38" t="s">
+        <v>28</v>
       </c>
       <c r="C38">
         <v>755</v>
@@ -3460,7 +3484,7 @@
         <v>27.7</v>
       </c>
       <c r="F38">
-        <v>89.59999999999999</v>
+        <v>89.6</v>
       </c>
       <c r="G38">
         <v>15.8</v>
@@ -3469,7 +3493,7 @@
         <v>13.3</v>
       </c>
       <c r="I38">
-        <v>5.22683352778391</v>
+        <v>4.9467649467649473</v>
       </c>
       <c r="J38">
         <v>98</v>
@@ -3487,22 +3511,22 @@
         <v>48.8</v>
       </c>
       <c r="O38">
-        <v>18.07154301329002</v>
+        <v>18.534320000000001</v>
       </c>
       <c r="P38">
-        <v>3.626851098257716</v>
+        <v>3.27182</v>
       </c>
       <c r="Q38">
-        <v>24.91878035029575</v>
+        <v>24.918780350295751</v>
       </c>
       <c r="R38">
-        <v>14.4446919150323</v>
+        <v>15.262499999999999</v>
       </c>
       <c r="S38">
-        <v>0.9445694692065333</v>
+        <v>0.91684924488124475</v>
       </c>
       <c r="T38">
-        <v>123.588125</v>
+        <v>123.58812500000001</v>
       </c>
       <c r="U38">
         <v>1359</v>
@@ -3514,23 +3538,21 @@
         <v>0.3</v>
       </c>
       <c r="X38">
-        <v>26.2023550060075</v>
+        <v>24.798358429210619</v>
       </c>
       <c r="Y38">
-        <v>8.891351853461673</v>
+        <v>8.4149279758496505</v>
       </c>
       <c r="Z38">
-        <v>29.12992311557356</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>29.129923116216169</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>21</v>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>CTEPH</t>
-        </is>
+      <c r="B39" t="s">
+        <v>28</v>
       </c>
       <c r="C39">
         <v>979</v>
@@ -3551,7 +3573,7 @@
         <v>14.1</v>
       </c>
       <c r="I39">
-        <v>11.2700599803517</v>
+        <v>10.528376070582061</v>
       </c>
       <c r="J39">
         <v>90</v>
@@ -3569,19 +3591,19 @@
         <v>48.9</v>
       </c>
       <c r="O39">
-        <v>17.37845391915333</v>
+        <v>17.944240000000001</v>
       </c>
       <c r="P39">
-        <v>8.691721091583684</v>
+        <v>8.6455599999999997</v>
       </c>
       <c r="Q39">
-        <v>21.36044586432852</v>
+        <v>21.360445864328518</v>
       </c>
       <c r="R39">
-        <v>8.686732827569642</v>
+        <v>9.2986799999999974</v>
       </c>
       <c r="S39">
-        <v>1.958562180346361</v>
+        <v>1.889237070207815</v>
       </c>
       <c r="T39">
         <v>110.1852401746725</v>
@@ -3596,23 +3618,21 @@
         <v>0.3</v>
       </c>
       <c r="X39">
-        <v>28.92488626602287</v>
+        <v>27.021336260714339</v>
       </c>
       <c r="Y39">
-        <v>13.36872240204486</v>
+        <v>12.48892528321319</v>
       </c>
       <c r="Z39">
-        <v>34.14732158770163</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>34.147321587701633</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>22</v>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>CTEPH</t>
-        </is>
+      <c r="B40" t="s">
+        <v>28</v>
       </c>
       <c r="C40">
         <v>643</v>
@@ -3633,7 +3653,7 @@
         <v>15.7</v>
       </c>
       <c r="I40">
-        <v>6.76148859037523</v>
+        <v>6.2407432210776017</v>
       </c>
       <c r="J40">
         <v>87.8</v>
@@ -3648,28 +3668,28 @@
         <v>7.41</v>
       </c>
       <c r="N40">
-        <v>36.2</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="O40">
-        <v>18.39242661973726</v>
+        <v>19.45524</v>
       </c>
       <c r="P40">
-        <v>8.882686398992218</v>
+        <v>9.1519799999999982</v>
       </c>
       <c r="Q40">
         <v>24.50678286845368</v>
       </c>
       <c r="R40">
-        <v>9.509740220745039</v>
+        <v>10.30326</v>
       </c>
       <c r="S40">
-        <v>1.243601827386671</v>
+        <v>1.214151571444378</v>
       </c>
       <c r="T40">
         <v>127.0918343195266</v>
       </c>
       <c r="U40">
-        <v>1157.4</v>
+        <v>1157.4000000000001</v>
       </c>
       <c r="V40">
         <v>0.24</v>
@@ -3678,23 +3698,21 @@
         <v>0.3</v>
       </c>
       <c r="X40">
-        <v>20.33766943966905</v>
+        <v>18.77133577763216</v>
       </c>
       <c r="Y40">
-        <v>6.89861520186828</v>
+        <v>6.3673088374601772</v>
       </c>
       <c r="Z40">
-        <v>31.91684242955462</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>31.916842429603001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>23</v>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>CTEPH</t>
-        </is>
+      <c r="B41" t="s">
+        <v>28</v>
       </c>
       <c r="C41">
         <v>1455</v>
@@ -3715,7 +3733,7 @@
         <v>15.1</v>
       </c>
       <c r="I41">
-        <v>17.44607544110379</v>
+        <v>17.644747564903572</v>
       </c>
       <c r="J41">
         <v>95.5</v>
@@ -3733,19 +3751,19 @@
         <v>38.9</v>
       </c>
       <c r="O41">
-        <v>19.63936457211577</v>
+        <v>20.407260000000001</v>
       </c>
       <c r="P41">
-        <v>11.29938000130536</v>
+        <v>12.16118</v>
       </c>
       <c r="Q41">
-        <v>50.96821824715583</v>
+        <v>50.968218247155832</v>
       </c>
       <c r="R41">
-        <v>8.339984570810408</v>
+        <v>8.2460799999999992</v>
       </c>
       <c r="S41">
-        <v>3.426298359404727</v>
+        <v>3.600809511913539</v>
       </c>
       <c r="T41">
         <v>125.099109947644</v>
@@ -3760,23 +3778,21 @@
         <v>0.3</v>
       </c>
       <c r="X41">
-        <v>37.49017559551442</v>
+        <v>37.917105585147489</v>
       </c>
       <c r="Y41">
-        <v>17.69053322434538</v>
+        <v>17.89198918036805</v>
       </c>
       <c r="Z41">
-        <v>39.11209749011885</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>39.112097490118892</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>24</v>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>CTEPH</t>
-        </is>
+      <c r="B42" t="s">
+        <v>28</v>
       </c>
       <c r="C42">
         <v>1038</v>
@@ -3785,10 +3801,10 @@
         <v>1123</v>
       </c>
       <c r="E42">
-        <v>38.7</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="F42">
-        <v>39.2</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="G42">
         <v>26</v>
@@ -3797,10 +3813,10 @@
         <v>16</v>
       </c>
       <c r="I42">
-        <v>18.05455406710893</v>
+        <v>18.845863351150349</v>
       </c>
       <c r="J42">
-        <v>76.40000000000001</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="K42">
         <v>52</v>
@@ -3815,22 +3831,22 @@
         <v>41.9</v>
       </c>
       <c r="O42">
-        <v>16.4925517238456</v>
+        <v>17.239039999999999</v>
       </c>
       <c r="P42">
-        <v>10.74330975341673</v>
+        <v>11.731199999999999</v>
       </c>
       <c r="Q42">
         <v>25.03717675176631</v>
       </c>
       <c r="R42">
-        <v>5.749241970428876</v>
+        <v>5.5078400000000034</v>
       </c>
       <c r="S42">
-        <v>2.97765666802761</v>
+        <v>3.2488459214501488</v>
       </c>
       <c r="T42">
-        <v>113.9592074799644</v>
+        <v>113.95920747996441</v>
       </c>
       <c r="U42">
         <v>1868.4</v>
@@ -3842,23 +3858,21 @@
         <v>0.3</v>
       </c>
       <c r="X42">
-        <v>33.33359260784648</v>
+        <v>34.794563684894371</v>
       </c>
       <c r="Y42">
-        <v>12.67285720890155</v>
+        <v>13.228293223962369</v>
       </c>
       <c r="Z42">
-        <v>31.43988874908103</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>31.439888749081032</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>25</v>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>CTEPH</t>
-        </is>
+      <c r="B43" t="s">
+        <v>28</v>
       </c>
       <c r="C43">
         <v>1317</v>
@@ -3870,7 +3884,7 @@
         <v>22.1</v>
       </c>
       <c r="F43">
-        <v>71.59999999999999</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="G43">
         <v>27.7</v>
@@ -3879,7 +3893,7 @@
         <v>11.4</v>
       </c>
       <c r="I43">
-        <v>19.77724934548641</v>
+        <v>19.517125277122439</v>
       </c>
       <c r="J43">
         <v>96</v>
@@ -3897,22 +3911,22 @@
         <v>27.4</v>
       </c>
       <c r="O43">
-        <v>15.01832886529185</v>
+        <v>15.55072</v>
       </c>
       <c r="P43">
-        <v>8.359162178390728</v>
+        <v>8.8027999999999995</v>
       </c>
       <c r="Q43">
-        <v>50.63656842573759</v>
+        <v>50.636568425737593</v>
       </c>
       <c r="R43">
-        <v>6.659166686901118</v>
+        <v>6.7479199999999988</v>
       </c>
       <c r="S43">
-        <v>2.970212347213928</v>
+        <v>3.035053503894535</v>
       </c>
       <c r="T43">
-        <v>127.2892135697764</v>
+        <v>127.28921356977639</v>
       </c>
       <c r="U43">
         <v>2370.6</v>
@@ -3924,23 +3938,21 @@
         <v>0.3</v>
       </c>
       <c r="X43">
-        <v>33.99120344031827</v>
+        <v>33.544127612276789</v>
       </c>
       <c r="Y43">
-        <v>15.68475350974446</v>
+        <v>15.47845677843627</v>
       </c>
       <c r="Z43">
-        <v>39.04778170455657</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>39.047781704555803</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>26</v>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>CTEPH</t>
-        </is>
+      <c r="B44" t="s">
+        <v>28</v>
       </c>
       <c r="C44">
         <v>908</v>
@@ -3961,7 +3973,7 @@
         <v>14.1</v>
       </c>
       <c r="I44">
-        <v>15.39046315259552</v>
+        <v>13.718830454594899</v>
       </c>
       <c r="J44">
         <v>86.5</v>
@@ -3979,22 +3991,22 @@
         <v>30.4</v>
       </c>
       <c r="O44">
-        <v>16.45643681213252</v>
+        <v>17.2303</v>
       </c>
       <c r="P44">
-        <v>10.55667933896726</v>
+        <v>10.611660000000001</v>
       </c>
       <c r="Q44">
-        <v>29.24599128222942</v>
+        <v>29.245991282229419</v>
       </c>
       <c r="R44">
-        <v>5.899757473165261</v>
+        <v>6.618640000000001</v>
       </c>
       <c r="S44">
-        <v>2.53272184380142</v>
+        <v>2.3637956438180661</v>
       </c>
       <c r="T44">
-        <v>122.9422605363985</v>
+        <v>122.94226053639851</v>
       </c>
       <c r="U44">
         <v>1634.4</v>
@@ -4006,23 +4018,21 @@
         <v>0.3</v>
       </c>
       <c r="X44">
-        <v>25.68972685869709</v>
+        <v>22.899441277688609</v>
       </c>
       <c r="Y44">
-        <v>10.55008934411143</v>
+        <v>9.4041930744809523</v>
       </c>
       <c r="Z44">
-        <v>35.64521679987679</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>35.645216799877119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>27</v>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>CTEPH</t>
-        </is>
+      <c r="B45" t="s">
+        <v>28</v>
       </c>
       <c r="C45">
         <v>1160</v>
@@ -4034,7 +4044,7 @@
         <v>26.9</v>
       </c>
       <c r="F45">
-        <v>68.90000000000001</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="G45">
         <v>21</v>
@@ -4043,7 +4053,7 @@
         <v>13.5</v>
       </c>
       <c r="I45">
-        <v>10.40493226861159</v>
+        <v>9.2002303230073998</v>
       </c>
       <c r="J45">
         <v>95.2</v>
@@ -4061,22 +4071,22 @@
         <v>41</v>
       </c>
       <c r="O45">
-        <v>17.61196962297278</v>
+        <v>18.213280000000001</v>
       </c>
       <c r="P45">
-        <v>6.46341074672372</v>
+        <v>5.6048999999999998</v>
       </c>
       <c r="Q45">
-        <v>40.12560501137052</v>
+        <v>40.125605011370517</v>
       </c>
       <c r="R45">
-        <v>11.14855887624906</v>
+        <v>12.60838</v>
       </c>
       <c r="S45">
-        <v>1.832513510438766</v>
+        <v>1.6756637093742419</v>
       </c>
       <c r="T45">
-        <v>124.7867545963229</v>
+        <v>124.78675459632289</v>
       </c>
       <c r="U45">
         <v>2088</v>
@@ -4088,23 +4098,21 @@
         <v>0.3</v>
       </c>
       <c r="X45">
-        <v>35.87754489438609</v>
+        <v>31.72357761848491</v>
       </c>
       <c r="Y45">
-        <v>13.33173988985278</v>
+        <v>11.788166844976271</v>
       </c>
       <c r="Z45">
-        <v>32.63583351371286</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>32.635833512952992</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>28</v>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>CTEPH</t>
-        </is>
+      <c r="B46" t="s">
+        <v>28</v>
       </c>
       <c r="C46">
         <v>1862</v>
@@ -4116,22 +4124,22 @@
         <v>31.1</v>
       </c>
       <c r="F46">
-        <v>85.09999999999999</v>
+        <v>85.1</v>
       </c>
       <c r="G46">
         <v>17.8</v>
       </c>
       <c r="H46">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="I46">
-        <v>10.92025859254303</v>
+        <v>10.07489619394013</v>
       </c>
       <c r="J46">
-        <v>95.40000000000001</v>
+        <v>95.4</v>
       </c>
       <c r="K46">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="L46">
         <v>7.43</v>
@@ -4143,22 +4151,22 @@
         <v>52.7</v>
       </c>
       <c r="O46">
-        <v>23.01877539983038</v>
+        <v>23.111080000000001</v>
       </c>
       <c r="P46">
-        <v>5.967897124186993</v>
+        <v>4.6295000000000011</v>
       </c>
       <c r="Q46">
-        <v>56.31864702079905</v>
+        <v>56.318647020799048</v>
       </c>
       <c r="R46">
-        <v>17.05087827564339</v>
+        <v>18.481580000000001</v>
       </c>
       <c r="S46">
-        <v>2.513709798498159</v>
+        <v>2.3284173192984592</v>
       </c>
       <c r="T46">
-        <v>121.2037931034483</v>
+        <v>121.20379310344831</v>
       </c>
       <c r="U46">
         <v>3351.6</v>
@@ -4170,23 +4178,21 @@
         <v>0.3</v>
       </c>
       <c r="X46">
-        <v>61.3154255930175</v>
+        <v>56.568857110954227</v>
       </c>
       <c r="Y46">
-        <v>22.68411988472803</v>
+        <v>20.928089857284899</v>
       </c>
       <c r="Z46">
-        <v>30.67902487808823</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>30.679024878090232</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>29</v>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>CTEPH</t>
-        </is>
+      <c r="B47" t="s">
+        <v>28</v>
       </c>
       <c r="C47">
         <v>922</v>
@@ -4207,13 +4213,13 @@
         <v>10.5</v>
       </c>
       <c r="I47">
-        <v>15.32789910452537</v>
+        <v>12.48753954838989</v>
       </c>
       <c r="J47">
-        <v>88.40000000000001</v>
+        <v>88.4</v>
       </c>
       <c r="K47">
-        <v>38.8</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="L47">
         <v>7.41</v>
@@ -4222,22 +4228,22 @@
         <v>7.38</v>
       </c>
       <c r="N47">
-        <v>34.2</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="O47">
-        <v>12.86123127930506</v>
+        <v>13.168240000000001</v>
       </c>
       <c r="P47">
-        <v>6.846055985465919</v>
+        <v>5.7848799999999976</v>
       </c>
       <c r="Q47">
-        <v>37.10094909404659</v>
+        <v>37.100949094046591</v>
       </c>
       <c r="R47">
-        <v>6.015175293839136</v>
+        <v>7.3833600000000006</v>
       </c>
       <c r="S47">
-        <v>1.971356554091536</v>
+        <v>1.6443891778268971</v>
       </c>
       <c r="T47">
         <v>128.2881395348837</v>
@@ -4252,23 +4258,21 @@
         <v>0.3</v>
       </c>
       <c r="X47">
-        <v>26.84173473821325</v>
+        <v>21.867786433423809</v>
       </c>
       <c r="Y47">
-        <v>10.08995486392482</v>
+        <v>8.2202204976369302</v>
       </c>
       <c r="Z47">
-        <v>34.6503222742785</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>34.650322274278501</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>32</v>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>CTEPH</t>
-        </is>
+      <c r="B48" t="s">
+        <v>28</v>
       </c>
       <c r="C48">
         <v>1285</v>
@@ -4289,7 +4293,7 @@
         <v>14.9</v>
       </c>
       <c r="I48">
-        <v>15.93610737251413</v>
+        <v>14.74520063800245</v>
       </c>
       <c r="J48">
         <v>91.7</v>
@@ -4307,19 +4311,19 @@
         <v>32.4</v>
       </c>
       <c r="O48">
-        <v>18.60388663794431</v>
+        <v>19.314540000000001</v>
       </c>
       <c r="P48">
-        <v>10.54043695125163</v>
+        <v>10.59984</v>
       </c>
       <c r="Q48">
-        <v>37.8007548909118</v>
+        <v>37.800754890911797</v>
       </c>
       <c r="R48">
-        <v>8.06344968669268</v>
+        <v>8.7147000000000006</v>
       </c>
       <c r="S48">
-        <v>2.964735350083615</v>
+        <v>2.84796767530724</v>
       </c>
       <c r="T48">
         <v>120.3995167286245</v>
@@ -4334,23 +4338,21 @@
         <v>0.3</v>
       </c>
       <c r="X48">
-        <v>35.37284314656946</v>
+        <v>32.72942740285206</v>
       </c>
       <c r="Y48">
-        <v>15.82773745278107</v>
+        <v>14.644929212099269</v>
       </c>
       <c r="Z48">
-        <v>36.62830589995922</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>36.628305899959223</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>401</v>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>HFpEF</t>
-        </is>
+      <c r="B49" t="s">
+        <v>29</v>
       </c>
       <c r="C49">
         <v>984</v>
@@ -4362,7 +4364,7 @@
         <v>33.1</v>
       </c>
       <c r="F49">
-        <v>70.09999999999999</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="G49">
         <v>21.8</v>
@@ -4371,10 +4373,10 @@
         <v>14.2</v>
       </c>
       <c r="I49">
-        <v>8.687745064632544</v>
+        <v>8.4498334077559871</v>
       </c>
       <c r="J49">
-        <v>95.40000000000001</v>
+        <v>95.4</v>
       </c>
       <c r="K49">
         <v>37.6</v>
@@ -4389,22 +4391,22 @@
         <v>42.8</v>
       </c>
       <c r="O49">
-        <v>18.57869155868076</v>
+        <v>19.18984</v>
       </c>
       <c r="P49">
-        <v>7.252392355843609</v>
+        <v>7.5446399999999993</v>
       </c>
       <c r="Q49">
-        <v>27.7017639438103</v>
+        <v>27.701763943810299</v>
       </c>
       <c r="R49">
-        <v>11.32629920283715</v>
+        <v>11.645200000000001</v>
       </c>
       <c r="S49">
-        <v>1.614069358962591</v>
+        <v>1.6215095112149209</v>
       </c>
       <c r="T49">
-        <v>119.0818518518518</v>
+        <v>119.08185185185179</v>
       </c>
       <c r="U49">
         <v>1771.2</v>
@@ -4416,23 +4418,21 @@
         <v>0.3</v>
       </c>
       <c r="X49">
-        <v>29.69183439734735</v>
+        <v>28.87873117349158</v>
       </c>
       <c r="Y49">
-        <v>12.25049000142201</v>
+        <v>11.91501349375457</v>
       </c>
       <c r="Z49">
-        <v>33.44411420920014</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>33.444114209005171</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>402</v>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>HFpEF</t>
-        </is>
+      <c r="B50" t="s">
+        <v>29</v>
       </c>
       <c r="C50">
         <v>1479</v>
@@ -4453,7 +4453,7 @@
         <v>12.9</v>
       </c>
       <c r="I50">
-        <v>21.19246507232112</v>
+        <v>18.191881918819188</v>
       </c>
       <c r="J50">
         <v>93.3</v>
@@ -4471,19 +4471,19 @@
         <v>46.7</v>
       </c>
       <c r="O50">
-        <v>16.47083287455111</v>
+        <v>17.0503</v>
       </c>
       <c r="P50">
-        <v>9.491937333363309</v>
+        <v>8.9202999999999992</v>
       </c>
       <c r="Q50">
-        <v>44.1726952943519</v>
+        <v>44.172695294351897</v>
       </c>
       <c r="R50">
-        <v>6.978895541187798</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="S50">
-        <v>3.490575504059628</v>
+        <v>3.1017704428044279</v>
       </c>
       <c r="T50">
         <v>120.8411111111111</v>
@@ -4495,26 +4495,24 @@
         <v>0.24</v>
       </c>
       <c r="W50">
-        <v>0.2999999999999999</v>
+        <v>0.29999999999999988</v>
       </c>
       <c r="X50">
-        <v>39.21660590862206</v>
+        <v>33.664033962632409</v>
       </c>
       <c r="Y50">
-        <v>18.54405975586011</v>
+        <v>15.9184570658908</v>
       </c>
       <c r="Z50">
-        <v>38.01493938030428</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>38.014939380304277</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>404</v>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>HFpEF</t>
-        </is>
+      <c r="B51" t="s">
+        <v>29</v>
       </c>
       <c r="C51">
         <v>633</v>
@@ -4535,7 +4533,7 @@
         <v>13.4</v>
       </c>
       <c r="I51">
-        <v>12.69300161259968</v>
+        <v>9.6487430721110208</v>
       </c>
       <c r="J51">
         <v>95.5</v>
@@ -4553,25 +4551,25 @@
         <v>45.9</v>
       </c>
       <c r="O51">
-        <v>17.74941236808155</v>
+        <v>18.15484</v>
       </c>
       <c r="P51">
-        <v>12.76241229260962</v>
+        <v>11.5944</v>
       </c>
       <c r="Q51">
-        <v>15.98518487341905</v>
+        <v>15.985184873419049</v>
       </c>
       <c r="R51">
-        <v>4.987000075471935</v>
+        <v>6.5604399999999981</v>
       </c>
       <c r="S51">
-        <v>2.252933198107559</v>
+        <v>1.75171386675284</v>
       </c>
       <c r="T51">
         <v>115.5633333333333</v>
       </c>
       <c r="U51">
-        <v>1139.4</v>
+        <v>1139.4000000000001</v>
       </c>
       <c r="V51">
         <v>0.24</v>
@@ -4580,23 +4578,21 @@
         <v>0.3</v>
       </c>
       <c r="X51">
-        <v>13.6697365597217</v>
+        <v>10.39122029239098</v>
       </c>
       <c r="Y51">
-        <v>9.719778225674826</v>
+        <v>7.3886103287296043</v>
       </c>
       <c r="Z51">
-        <v>46.6082202978865</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>46.608220297886469</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>405</v>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>HFpEF</t>
-        </is>
+      <c r="B52" t="s">
+        <v>29</v>
       </c>
       <c r="C52">
         <v>1860</v>
@@ -4611,19 +4607,19 @@
         <v>60.3</v>
       </c>
       <c r="G52">
-        <v>36.2</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="H52">
         <v>16.2</v>
       </c>
       <c r="I52">
-        <v>39.32856816962863</v>
+        <v>30.21756647864628</v>
       </c>
       <c r="J52">
         <v>92.2</v>
       </c>
       <c r="K52">
-        <v>65.40000000000001</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="L52">
         <v>7.41</v>
@@ -4635,19 +4631,19 @@
         <v>44.5</v>
       </c>
       <c r="O52">
-        <v>20.43142039606567</v>
+        <v>21.103919999999999</v>
       </c>
       <c r="P52">
-        <v>15.70203387993926</v>
+        <v>14.948560000000001</v>
       </c>
       <c r="Q52">
-        <v>47.92511257933741</v>
+        <v>47.925112579337409</v>
       </c>
       <c r="R52">
-        <v>4.729386516126411</v>
+        <v>6.1553599999999946</v>
       </c>
       <c r="S52">
-        <v>8.035385098490096</v>
+        <v>6.3770910556003262</v>
       </c>
       <c r="T52">
         <v>116.2437614678899</v>
@@ -4662,23 +4658,21 @@
         <v>0.3</v>
       </c>
       <c r="X52">
-        <v>41.92422799362733</v>
+        <v>32.21190613900221</v>
       </c>
       <c r="Y52">
-        <v>26.57922992168524</v>
+        <v>20.42178712547145</v>
       </c>
       <c r="Z52">
-        <v>44.66623103775174</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>44.666231037765549</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>406</v>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>HFpEF</t>
-        </is>
+      <c r="B53" t="s">
+        <v>29</v>
       </c>
       <c r="C53">
         <v>1442</v>
@@ -4699,7 +4693,7 @@
         <v>13.6</v>
       </c>
       <c r="I53">
-        <v>12.43633560695548</v>
+        <v>13.584089470352399</v>
       </c>
       <c r="J53">
         <v>98.2</v>
@@ -4717,19 +4711,19 @@
         <v>37.4</v>
       </c>
       <c r="O53">
-        <v>18.48922933931496</v>
+        <v>18.986239999999999</v>
       </c>
       <c r="P53">
-        <v>6.894173966303724</v>
+        <v>8.3708799999999997</v>
       </c>
       <c r="Q53">
         <v>41.22929312608958</v>
       </c>
       <c r="R53">
-        <v>11.59505537301123</v>
+        <v>10.615360000000001</v>
       </c>
       <c r="S53">
-        <v>2.299382611776885</v>
+        <v>2.5791078286558351</v>
       </c>
       <c r="T53">
         <v>119.5530088495575</v>
@@ -4744,23 +4738,21 @@
         <v>0.3</v>
       </c>
       <c r="X53">
-        <v>42.13468793014218</v>
+        <v>46.02331335681238</v>
       </c>
       <c r="Y53">
-        <v>18.9197865457734</v>
+        <v>20.665900416358511</v>
       </c>
       <c r="Z53">
-        <v>34.53445437881084</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>34.534454378822097</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>407</v>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>HFpEF</t>
-        </is>
+      <c r="B54" t="s">
+        <v>29</v>
       </c>
       <c r="C54">
         <v>1860</v>
@@ -4769,10 +4761,10 @@
         <v>1934.4</v>
       </c>
       <c r="E54">
-        <v>37.8</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="F54">
-        <v>78.09999999999999</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="G54">
         <v>37.6</v>
@@ -4781,10 +4773,10 @@
         <v>11.6</v>
       </c>
       <c r="I54">
-        <v>47.88231089454364</v>
+        <v>36.132220616345748</v>
       </c>
       <c r="J54">
-        <v>95.90000000000001</v>
+        <v>95.9</v>
       </c>
       <c r="K54">
         <v>65</v>
@@ -4799,22 +4791,22 @@
         <v>42.7</v>
       </c>
       <c r="O54">
-        <v>15.50766938808743</v>
+        <v>15.82408</v>
       </c>
       <c r="P54">
-        <v>11.62314509247338</v>
+        <v>10.67632</v>
       </c>
       <c r="Q54">
-        <v>44.1541010997439</v>
+        <v>44.154101099743897</v>
       </c>
       <c r="R54">
-        <v>3.884524295614048</v>
+        <v>5.1477599999999999</v>
       </c>
       <c r="S54">
-        <v>7.425430468901996</v>
+        <v>5.717591496107044</v>
       </c>
       <c r="T54">
-        <v>113.3838461538462</v>
+        <v>113.38384615384621</v>
       </c>
       <c r="U54">
         <v>3348</v>
@@ -4826,35 +4818,33 @@
         <v>0.3</v>
       </c>
       <c r="X54">
-        <v>38.06770452683076</v>
+        <v>28.72607175018474</v>
       </c>
       <c r="Y54">
-        <v>30.97737408861716</v>
+        <v>23.375674518928321</v>
       </c>
       <c r="Z54">
-        <v>49.16187979465183</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>49.161879794651817</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>408</v>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>HFpEF</t>
-        </is>
+      <c r="B55" t="s">
+        <v>29</v>
       </c>
       <c r="C55">
         <v>1023</v>
       </c>
       <c r="D55">
-        <v>1094.61</v>
+        <v>1094.6099999999999</v>
       </c>
       <c r="E55">
         <v>31</v>
       </c>
       <c r="F55">
-        <v>83.40000000000001</v>
+        <v>83.4</v>
       </c>
       <c r="G55">
         <v>34.1</v>
@@ -4863,13 +4853,13 @@
         <v>12.9</v>
       </c>
       <c r="I55">
-        <v>18.60939958798915</v>
+        <v>19.350079443141411</v>
       </c>
       <c r="J55">
         <v>95.5</v>
       </c>
       <c r="K55">
-        <v>67.09999999999999</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="L55">
         <v>7.44</v>
@@ -4881,22 +4871,22 @@
         <v>42.1</v>
       </c>
       <c r="O55">
-        <v>17.382064826659</v>
+        <v>17.51418</v>
       </c>
       <c r="P55">
-        <v>11.88484287082404</v>
+        <v>12.22738</v>
       </c>
       <c r="Q55">
         <v>30.46591889559966</v>
       </c>
       <c r="R55">
-        <v>5.497221955834961</v>
+        <v>5.2868000000000013</v>
       </c>
       <c r="S55">
-        <v>3.234697900236286</v>
+        <v>3.3890077438147839</v>
       </c>
       <c r="T55">
-        <v>120.7580373831776</v>
+        <v>120.75803738317759</v>
       </c>
       <c r="U55">
         <v>1841.4</v>
@@ -4908,23 +4898,21 @@
         <v>0.3</v>
       </c>
       <c r="X55">
-        <v>22.1795363044363</v>
+        <v>23.062312541239528</v>
       </c>
       <c r="Y55">
-        <v>14.84235643186861</v>
+        <v>15.433102756600659</v>
       </c>
       <c r="Z55">
-        <v>46.42646381663673</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>46.426463816638979</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>410</v>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>HFpEF</t>
-        </is>
+      <c r="B56" t="s">
+        <v>29</v>
       </c>
       <c r="C56">
         <v>1228</v>
@@ -4936,7 +4924,7 @@
         <v>44.8</v>
       </c>
       <c r="F56">
-        <v>69.59999999999999</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="G56">
         <v>24</v>
@@ -4945,10 +4933,10 @@
         <v>14.1</v>
       </c>
       <c r="I56">
-        <v>12.27901990158034</v>
+        <v>10.092393064191899</v>
       </c>
       <c r="J56">
-        <v>91.59999999999999</v>
+        <v>91.6</v>
       </c>
       <c r="K56">
         <v>30.7</v>
@@ -4963,19 +4951,19 @@
         <v>57.5</v>
       </c>
       <c r="O56">
-        <v>18.42317173522787</v>
+        <v>18.304559999999999</v>
       </c>
       <c r="P56">
-        <v>8.4223735457734</v>
+        <v>6.1369799999999994</v>
       </c>
       <c r="Q56">
-        <v>25.06933316898805</v>
+        <v>25.069333168988049</v>
       </c>
       <c r="R56">
-        <v>10.00079818945447</v>
+        <v>12.167579999999999</v>
       </c>
       <c r="S56">
-        <v>2.262184923870954</v>
+        <v>1.847368143870844</v>
       </c>
       <c r="T56">
         <v>107.4658490566038</v>
@@ -4990,29 +4978,27 @@
         <v>0.3</v>
       </c>
       <c r="X56">
-        <v>34.98775663998583</v>
+        <v>28.757196850525499</v>
       </c>
       <c r="Y56">
-        <v>18.36905531638543</v>
+        <v>15.09792540095043</v>
       </c>
       <c r="Z56">
-        <v>35.40098636862172</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>35.400986368482677</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>411</v>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>HFpEF</t>
-        </is>
+      <c r="B57" t="s">
+        <v>29</v>
       </c>
       <c r="C57">
         <v>918</v>
       </c>
       <c r="D57">
-        <v>761.9399999999999</v>
+        <v>761.93999999999994</v>
       </c>
       <c r="E57">
         <v>34</v>
@@ -5027,10 +5013,10 @@
         <v>12.6</v>
       </c>
       <c r="I57">
-        <v>14.6827545020732</v>
+        <v>14.05974318761028</v>
       </c>
       <c r="J57">
-        <v>97.90000000000001</v>
+        <v>97.9</v>
       </c>
       <c r="K57">
         <v>61.9</v>
@@ -5042,22 +5028,22 @@
         <v>7.51</v>
       </c>
       <c r="N57">
-        <v>36.2</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="O57">
-        <v>17.09174711473141</v>
+        <v>17.5502</v>
       </c>
       <c r="P57">
-        <v>10.83951426652586</v>
+        <v>11.02092</v>
       </c>
       <c r="Q57">
-        <v>19.33563416738568</v>
+        <v>19.335634167385681</v>
       </c>
       <c r="R57">
-        <v>6.252232848205553</v>
+        <v>6.5292799999999982</v>
       </c>
       <c r="S57">
-        <v>2.509539268971192</v>
+        <v>2.4675130489119792</v>
       </c>
       <c r="T57">
         <v>108.7661445783132</v>
@@ -5072,23 +5058,21 @@
         <v>0.3</v>
       </c>
       <c r="X57">
-        <v>20.76066427727765</v>
+        <v>19.879758126976999</v>
       </c>
       <c r="Y57">
-        <v>16.22404528475495</v>
+        <v>15.53563468868226</v>
       </c>
       <c r="Z57">
-        <v>44.52254023486411</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>44.522540234825023</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>412</v>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>HFpEF</t>
-        </is>
+      <c r="B58" t="s">
+        <v>29</v>
       </c>
       <c r="C58">
         <v>819</v>
@@ -5109,10 +5093,10 @@
         <v>11.7</v>
       </c>
       <c r="I58">
-        <v>16.40062770613942</v>
+        <v>15.760062193554351</v>
       </c>
       <c r="J58">
-        <v>99.40000000000001</v>
+        <v>99.4</v>
       </c>
       <c r="K58">
         <v>69.2</v>
@@ -5127,19 +5111,19 @@
         <v>29.2</v>
       </c>
       <c r="O58">
-        <v>16.28518709240354</v>
+        <v>16.646519999999999</v>
       </c>
       <c r="P58">
-        <v>11.29147578650385</v>
+        <v>11.44984</v>
       </c>
       <c r="Q58">
-        <v>33.1511839708561</v>
+        <v>33.151183970856103</v>
       </c>
       <c r="R58">
-        <v>4.993711305899682</v>
+        <v>5.1966800000000006</v>
       </c>
       <c r="S58">
-        <v>2.670872906273376</v>
+        <v>2.6235019050624628</v>
       </c>
       <c r="T58">
         <v>128.4142105263158</v>
@@ -5154,23 +5138,21 @@
         <v>0.3</v>
       </c>
       <c r="X58">
-        <v>16.2468689045072</v>
+        <v>15.612308807528141</v>
       </c>
       <c r="Y58">
-        <v>12.5775228475071</v>
+        <v>12.08627778578011</v>
       </c>
       <c r="Z58">
-        <v>50.71854491662558</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>50.718544916625227</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>413</v>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>HFpEF</t>
-        </is>
+      <c r="B59" t="s">
+        <v>29</v>
       </c>
       <c r="C59">
         <v>2244</v>
@@ -5191,10 +5173,10 @@
         <v>12.3</v>
       </c>
       <c r="I59">
-        <v>38.76795248044221</v>
+        <v>32.779701126254423</v>
       </c>
       <c r="J59">
-        <v>98.40000000000001</v>
+        <v>98.4</v>
       </c>
       <c r="K59">
         <v>59.9</v>
@@ -5209,22 +5191,22 @@
         <v>46.2</v>
       </c>
       <c r="O59">
-        <v>16.93729868884338</v>
+        <v>17.267679999999999</v>
       </c>
       <c r="P59">
-        <v>11.14901260091531</v>
+        <v>10.42198</v>
       </c>
       <c r="Q59">
-        <v>53.11139752000499</v>
+        <v>53.111397520004992</v>
       </c>
       <c r="R59">
-        <v>5.788286087928066</v>
+        <v>6.8457000000000026</v>
       </c>
       <c r="S59">
-        <v>6.566243907161362</v>
+        <v>5.6602938954380093</v>
       </c>
       <c r="T59">
-        <v>113.2754545454545</v>
+        <v>113.27545454545449</v>
       </c>
       <c r="U59">
         <v>4039.2</v>
@@ -5236,23 +5218,21 @@
         <v>0.3</v>
       </c>
       <c r="X59">
-        <v>47.781912734934</v>
+        <v>40.401329409440322</v>
       </c>
       <c r="Y59">
-        <v>40.89032939991979</v>
+        <v>34.574247307996487</v>
       </c>
       <c r="Z59">
-        <v>47.27010732138766</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>47.270107321387407</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>414</v>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>HFpEF</t>
-        </is>
+      <c r="B60" t="s">
+        <v>29</v>
       </c>
       <c r="C60">
         <v>1492</v>
@@ -5273,10 +5253,10 @@
         <v>13.6</v>
       </c>
       <c r="I60">
-        <v>21.69934351730522</v>
+        <v>18.813299439131669</v>
       </c>
       <c r="J60">
-        <v>94.59999999999999</v>
+        <v>94.6</v>
       </c>
       <c r="K60">
         <v>53.6</v>
@@ -5291,19 +5271,19 @@
         <v>53.1</v>
       </c>
       <c r="O60">
-        <v>17.71958911526146</v>
+        <v>18.23104</v>
       </c>
       <c r="P60">
-        <v>10.8438050676467</v>
+        <v>10.30048</v>
       </c>
       <c r="Q60">
-        <v>30.28980358321068</v>
+        <v>30.289803583210681</v>
       </c>
       <c r="R60">
-        <v>6.875784047614761</v>
+        <v>7.9305599999999981</v>
       </c>
       <c r="S60">
-        <v>3.84503451197561</v>
+        <v>3.429860146067869</v>
       </c>
       <c r="T60">
         <v>107.23</v>
@@ -5318,29 +5298,27 @@
         <v>0.3</v>
       </c>
       <c r="X60">
-        <v>37.10016178264284</v>
+        <v>32.165786596283063</v>
       </c>
       <c r="Y60">
-        <v>23.78623175267479</v>
+        <v>20.6226285202948</v>
       </c>
       <c r="Z60">
-        <v>40.51716432349432</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>40.517164323494256</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>415</v>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>HFpEF</t>
-        </is>
+      <c r="B61" t="s">
+        <v>29</v>
       </c>
       <c r="C61">
         <v>1022</v>
       </c>
       <c r="D61">
-        <v>1062.88</v>
+        <v>1062.8800000000001</v>
       </c>
       <c r="E61">
         <v>35.1</v>
@@ -5355,7 +5333,7 @@
         <v>12.6</v>
       </c>
       <c r="I61">
-        <v>14.55347476604311</v>
+        <v>11.31206694264273</v>
       </c>
       <c r="J61">
         <v>93.2</v>
@@ -5373,19 +5351,19 @@
         <v>51</v>
       </c>
       <c r="O61">
-        <v>16.38060760659472</v>
+        <v>16.656479999999998</v>
       </c>
       <c r="P61">
-        <v>9.358229676723424</v>
+        <v>7.6218799999999991</v>
       </c>
       <c r="Q61">
-        <v>26.12724890550603</v>
+        <v>26.127248905506029</v>
       </c>
       <c r="R61">
-        <v>7.022377929871299</v>
+        <v>9.0345999999999993</v>
       </c>
       <c r="S61">
-        <v>2.383947594550301</v>
+        <v>1.884192167887897</v>
       </c>
       <c r="T61">
         <v>115.98</v>
@@ -5400,23 +5378,21 @@
         <v>0.3</v>
       </c>
       <c r="X61">
-        <v>26.51404647992271</v>
+        <v>20.608732520773721</v>
       </c>
       <c r="Y61">
-        <v>13.94834499047297</v>
+        <v>10.841714079132259</v>
       </c>
       <c r="Z61">
-        <v>38.84745235340498</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>38.847452353404456</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>416</v>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>HFpEF</t>
-        </is>
+      <c r="B62" t="s">
+        <v>29</v>
       </c>
       <c r="C62">
         <v>1106</v>
@@ -5437,7 +5413,7 @@
         <v>10.7</v>
       </c>
       <c r="I62">
-        <v>19.4116082706584</v>
+        <v>17.32906739534403</v>
       </c>
       <c r="J62">
         <v>95.8</v>
@@ -5455,22 +5431,22 @@
         <v>37.6</v>
       </c>
       <c r="O62">
-        <v>14.1130791991694</v>
+        <v>14.58028</v>
       </c>
       <c r="P62">
-        <v>8.415457525689753</v>
+        <v>8.1979399999999991</v>
       </c>
       <c r="Q62">
-        <v>35.9859742085799</v>
+        <v>35.985974208579897</v>
       </c>
       <c r="R62">
-        <v>5.697621673479643</v>
+        <v>6.3823399999999992</v>
       </c>
       <c r="S62">
-        <v>2.739575649070537</v>
+        <v>2.5266265476298662</v>
       </c>
       <c r="T62">
-        <v>123.2121428571429</v>
+        <v>123.21214285714289</v>
       </c>
       <c r="U62">
         <v>1990.8</v>
@@ -5482,23 +5458,21 @@
         <v>0.3</v>
       </c>
       <c r="X62">
-        <v>27.47067142034345</v>
+        <v>24.523527870587419</v>
       </c>
       <c r="Y62">
-        <v>14.08493935618168</v>
+        <v>12.573860957803429</v>
       </c>
       <c r="Z62">
-        <v>40.56327217470236</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>40.563272174701282</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>104</v>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Post-PEA</t>
-        </is>
+      <c r="B63" t="s">
+        <v>30</v>
       </c>
       <c r="C63">
         <v>1175</v>
@@ -5519,10 +5493,10 @@
         <v>14</v>
       </c>
       <c r="I63">
-        <v>14.89991147086923</v>
+        <v>14.63656475465381</v>
       </c>
       <c r="J63">
-        <v>92.90000000000001</v>
+        <v>92.9</v>
       </c>
       <c r="K63">
         <v>52.5</v>
@@ -5537,19 +5511,19 @@
         <v>42.6</v>
       </c>
       <c r="O63">
-        <v>17.74557432708376</v>
+        <v>18.403919999999999</v>
       </c>
       <c r="P63">
-        <v>9.859621432012945</v>
+        <v>10.37608</v>
       </c>
       <c r="Q63">
-        <v>32.59237832095637</v>
+        <v>32.592378320956371</v>
       </c>
       <c r="R63">
-        <v>7.885952895070814</v>
+        <v>8.0278399999999959</v>
       </c>
       <c r="S63">
-        <v>2.644074864732777</v>
+        <v>2.693701668194683</v>
       </c>
       <c r="T63">
         <v>118.6244146901301</v>
@@ -5564,23 +5538,21 @@
         <v>0.3</v>
       </c>
       <c r="X63">
-        <v>32.01114458952043</v>
+        <v>31.445367415177572</v>
       </c>
       <c r="Y63">
-        <v>14.95348960579781</v>
+        <v>14.689195929197981</v>
       </c>
       <c r="Z63">
-        <v>37.0072514855005</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>37.007251485500497</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>109</v>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Post-PEA</t>
-        </is>
+      <c r="B64" t="s">
+        <v>30</v>
       </c>
       <c r="C64">
         <v>1766</v>
@@ -5601,7 +5573,7 @@
         <v>15.3</v>
       </c>
       <c r="I64">
-        <v>13.49348103277427</v>
+        <v>13.22539335435218</v>
       </c>
       <c r="J64">
         <v>93</v>
@@ -5619,19 +5591,19 @@
         <v>45.4</v>
       </c>
       <c r="O64">
-        <v>19.47619061608535</v>
+        <v>20.119959999999999</v>
       </c>
       <c r="P64">
-        <v>6.388389212499654</v>
+        <v>6.7668599999999994</v>
       </c>
       <c r="Q64">
-        <v>45.81922140805892</v>
+        <v>45.819221408058922</v>
       </c>
       <c r="R64">
-        <v>13.0878014035857</v>
+        <v>13.3531</v>
       </c>
       <c r="S64">
-        <v>2.628016086688438</v>
+        <v>2.660943852738316</v>
       </c>
       <c r="T64">
         <v>116.4748004496908</v>
@@ -5646,23 +5618,21 @@
         <v>0.3</v>
       </c>
       <c r="X64">
-        <v>58.00212298379938</v>
+        <v>56.849740254942631</v>
       </c>
       <c r="Y64">
-        <v>21.78293889537161</v>
+        <v>21.350156761281362</v>
       </c>
       <c r="Z64">
-        <v>30.74979123410633</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>30.749791234102769</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>110</v>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Post-PEA</t>
-        </is>
+      <c r="B65" t="s">
+        <v>30</v>
       </c>
       <c r="C65">
         <v>1361</v>
@@ -5683,7 +5653,7 @@
         <v>13.4</v>
       </c>
       <c r="I65">
-        <v>12.1069647232454</v>
+        <v>12.394045030179189</v>
       </c>
       <c r="J65">
         <v>92.8</v>
@@ -5701,25 +5671,25 @@
         <v>44.9</v>
       </c>
       <c r="O65">
-        <v>16.57313346313208</v>
+        <v>17.589119999999991</v>
       </c>
       <c r="P65">
-        <v>5.331670130981809</v>
+        <v>6.6080399999999999</v>
       </c>
       <c r="Q65">
-        <v>33.94389491978808</v>
+        <v>33.943894919788079</v>
       </c>
       <c r="R65">
-        <v>11.24146333215027</v>
+        <v>10.98108</v>
       </c>
       <c r="S65">
-        <v>2.00650342191778</v>
+        <v>2.1800034532122519</v>
       </c>
       <c r="T65">
-        <v>115.1350254916242</v>
+        <v>115.13502549162421</v>
       </c>
       <c r="U65">
-        <v>2449.8</v>
+        <v>2449.8000000000002</v>
       </c>
       <c r="V65">
         <v>0.24</v>
@@ -5728,23 +5698,21 @@
         <v>0.3</v>
       </c>
       <c r="X65">
-        <v>46.3151984173759</v>
+        <v>47.413424246995412</v>
       </c>
       <c r="Y65">
-        <v>16.6825964762589</v>
+        <v>17.07817414798215</v>
       </c>
       <c r="Z65">
-        <v>29.68732545221324</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>29.687325452213269</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>111</v>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Post-PEA</t>
-        </is>
+      <c r="B66" t="s">
+        <v>30</v>
       </c>
       <c r="C66">
         <v>1000</v>
@@ -5753,7 +5721,7 @@
         <v>1027</v>
       </c>
       <c r="E66">
-        <v>33.7</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="F66">
         <v>53.8</v>
@@ -5765,10 +5733,10 @@
         <v>15</v>
       </c>
       <c r="I66">
-        <v>10.11865144608809</v>
+        <v>10.010450910750819</v>
       </c>
       <c r="J66">
-        <v>88.40000000000001</v>
+        <v>88.4</v>
       </c>
       <c r="K66">
         <v>41.3</v>
@@ -5780,22 +5748,22 @@
         <v>7.35</v>
       </c>
       <c r="N66">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="O66">
-        <v>18.25480973708984</v>
+        <v>18.736160000000002</v>
       </c>
       <c r="P66">
-        <v>8.372069874688469</v>
+        <v>8.7466000000000008</v>
       </c>
       <c r="Q66">
-        <v>26.29402713379742</v>
+        <v>26.294027133797421</v>
       </c>
       <c r="R66">
-        <v>9.882739862401371</v>
+        <v>9.9895600000000009</v>
       </c>
       <c r="S66">
-        <v>1.84714056944267</v>
+        <v>1.875574099359731</v>
       </c>
       <c r="T66">
         <v>116.9159785783836</v>
@@ -5810,23 +5778,21 @@
         <v>0.3</v>
       </c>
       <c r="X66">
-        <v>30.95315287504647</v>
+        <v>30.62216531911568</v>
       </c>
       <c r="Y66">
-        <v>12.2557338837049</v>
+        <v>12.12468114666447</v>
       </c>
       <c r="Z66">
-        <v>32.6078958165665</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>32.607895816566511</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>114</v>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Post-PEA</t>
-        </is>
+      <c r="B67" t="s">
+        <v>30</v>
       </c>
       <c r="C67">
         <v>1101</v>
@@ -5847,7 +5813,7 @@
         <v>13.4</v>
       </c>
       <c r="I67">
-        <v>14.68619361818111</v>
+        <v>14.135899793032969</v>
       </c>
       <c r="J67">
         <v>93.8</v>
@@ -5865,22 +5831,22 @@
         <v>44.8</v>
       </c>
       <c r="O67">
-        <v>17.17032455907141</v>
+        <v>17.8004</v>
       </c>
       <c r="P67">
-        <v>9.6734875390488</v>
+        <v>10.01172</v>
       </c>
       <c r="Q67">
-        <v>28.79692365639905</v>
+        <v>28.796923656399048</v>
       </c>
       <c r="R67">
-        <v>7.496837020022614</v>
+        <v>7.7886799999999976</v>
       </c>
       <c r="S67">
-        <v>2.52166710961533</v>
+        <v>2.5162467067590399</v>
       </c>
       <c r="T67">
-        <v>116.7418631178707</v>
+        <v>116.74186311787069</v>
       </c>
       <c r="U67">
         <v>1981.8</v>
@@ -5892,23 +5858,21 @@
         <v>0.3</v>
       </c>
       <c r="X67">
-        <v>29.36120811702761</v>
+        <v>28.26103934996955</v>
       </c>
       <c r="Y67">
-        <v>14.56540248841635</v>
+        <v>14.019634724586091</v>
       </c>
       <c r="Z67">
-        <v>37.7999377693984</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>37.799937769398397</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>115</v>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Post-PEA</t>
-        </is>
+      <c r="B68" t="s">
+        <v>30</v>
       </c>
       <c r="C68">
         <v>2058</v>
@@ -5920,7 +5884,7 @@
         <v>36.4</v>
       </c>
       <c r="F68">
-        <v>92.90000000000001</v>
+        <v>92.9</v>
       </c>
       <c r="G68">
         <v>23.5</v>
@@ -5929,10 +5893,10 @@
         <v>16.8</v>
       </c>
       <c r="I68">
-        <v>15.65333928041101</v>
+        <v>16.07149550810291</v>
       </c>
       <c r="J68">
-        <v>98.09999999999999</v>
+        <v>98.1</v>
       </c>
       <c r="K68">
         <v>44.6</v>
@@ -5947,22 +5911,22 @@
         <v>43.5</v>
       </c>
       <c r="O68">
-        <v>22.84408142949828</v>
+        <v>23.3704</v>
       </c>
       <c r="P68">
-        <v>9.696726969639137</v>
+        <v>10.56512</v>
       </c>
       <c r="Q68">
-        <v>53.97320539684647</v>
+        <v>53.973205396846467</v>
       </c>
       <c r="R68">
-        <v>13.14735445985914</v>
+        <v>12.80528</v>
       </c>
       <c r="S68">
-        <v>3.575861571652731</v>
+        <v>3.7559727862256822</v>
       </c>
       <c r="T68">
-        <v>116.8309222661397</v>
+        <v>116.83092226613969</v>
       </c>
       <c r="U68">
         <v>3704.4</v>
@@ -5974,23 +5938,21 @@
         <v>0.3</v>
       </c>
       <c r="X68">
-        <v>57.07128455051052</v>
+        <v>58.595861040554098</v>
       </c>
       <c r="Y68">
-        <v>28.90192812154078</v>
+        <v>29.674001161026361</v>
       </c>
       <c r="Z68">
-        <v>36.37108913858314</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>36.371089138587678</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>127</v>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Post-PEA</t>
-        </is>
+      <c r="B69" t="s">
+        <v>30</v>
       </c>
       <c r="C69">
         <v>1041</v>
@@ -6002,7 +5964,7 @@
         <v>34.5</v>
       </c>
       <c r="F69">
-        <v>66.90000000000001</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="G69">
         <v>23</v>
@@ -6011,10 +5973,10 @@
         <v>13.4</v>
       </c>
       <c r="I69">
-        <v>10.52831945484313</v>
+        <v>9.9536452715882255</v>
       </c>
       <c r="J69">
-        <v>94.90000000000001</v>
+        <v>94.9</v>
       </c>
       <c r="K69">
         <v>39.9</v>
@@ -6029,19 +5991,19 @@
         <v>43.3</v>
       </c>
       <c r="O69">
-        <v>17.3740269976838</v>
+        <v>18.017320000000002</v>
       </c>
       <c r="P69">
-        <v>7.486409088055031</v>
+        <v>7.5588399999999991</v>
       </c>
       <c r="Q69">
-        <v>33.61218441685111</v>
+        <v>33.612184416851107</v>
       </c>
       <c r="R69">
-        <v>9.887617909628773</v>
+        <v>10.45848</v>
       </c>
       <c r="S69">
-        <v>1.829193064486842</v>
+        <v>1.79338012024692</v>
       </c>
       <c r="T69">
         <v>123.0079017857143</v>
@@ -6056,23 +6018,21 @@
         <v>0.3</v>
       </c>
       <c r="X69">
-        <v>30.66894563496865</v>
+        <v>28.994922410272331</v>
       </c>
       <c r="Y69">
-        <v>12.35404177919266</v>
+        <v>11.67971299388128</v>
       </c>
       <c r="Z69">
-        <v>34.24584940216076</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>34.245849402144508</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>132</v>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Post-PEA</t>
-        </is>
+      <c r="B70" t="s">
+        <v>30</v>
       </c>
       <c r="C70">
         <v>1572</v>
@@ -6084,7 +6044,7 @@
         <v>29.9</v>
       </c>
       <c r="F70">
-        <v>75.59999999999999</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="G70">
         <v>37.5</v>
@@ -6093,13 +6053,13 @@
         <v>14.3</v>
       </c>
       <c r="I70">
-        <v>33.50612619787967</v>
+        <v>28.440546232170391</v>
       </c>
       <c r="J70">
-        <v>96.40000000000001</v>
+        <v>96.4</v>
       </c>
       <c r="K70">
-        <v>69.40000000000001</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="L70">
         <v>7.42</v>
@@ -6111,19 +6071,19 @@
         <v>40.9</v>
       </c>
       <c r="O70">
-        <v>18.96441769659206</v>
+        <v>19.5412</v>
       </c>
       <c r="P70">
-        <v>14.27273835796568</v>
+        <v>14.01388</v>
       </c>
       <c r="Q70">
-        <v>47.90197985231185</v>
+        <v>47.901979852311847</v>
       </c>
       <c r="R70">
-        <v>4.691679338626377</v>
+        <v>5.5273199999999996</v>
       </c>
       <c r="S70">
-        <v>6.354241726113161</v>
+        <v>5.5576240203208798</v>
       </c>
       <c r="T70">
         <v>121.4150602409638</v>
@@ -6138,13 +6098,13 @@
         <v>0.3</v>
       </c>
       <c r="X70">
-        <v>32.50199718745587</v>
+        <v>27.58822515585841</v>
       </c>
       <c r="Y70">
-        <v>22.69185301405574</v>
+        <v>19.26121482765463</v>
       </c>
       <c r="Z70">
-        <v>48.66762753429848</v>
+        <v>48.667627534298482</v>
       </c>
     </row>
   </sheetData>
